--- a/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9954714012899428</v>
+        <v>1.023187640170922</v>
       </c>
       <c r="D2">
-        <v>1.014918785927663</v>
+        <v>1.039626293210929</v>
       </c>
       <c r="E2">
-        <v>1.003988660087904</v>
+        <v>1.035345811744463</v>
       </c>
       <c r="F2">
-        <v>1.013582465312368</v>
+        <v>1.044363865629058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044684210205116</v>
+        <v>1.051114119008693</v>
       </c>
       <c r="J2">
-        <v>1.017788410832045</v>
+        <v>1.044696260741445</v>
       </c>
       <c r="K2">
-        <v>1.026174118536895</v>
+        <v>1.050559853001182</v>
       </c>
       <c r="L2">
-        <v>1.015392704832496</v>
+        <v>1.04633374300044</v>
       </c>
       <c r="M2">
-        <v>1.02485576316604</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.055237895660998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003349113408544</v>
+        <v>1.029505240874954</v>
       </c>
       <c r="D3">
-        <v>1.020831064704574</v>
+        <v>1.044549702438569</v>
       </c>
       <c r="E3">
-        <v>1.010645051581954</v>
+        <v>1.040688994602209</v>
       </c>
       <c r="F3">
-        <v>1.020725245499033</v>
+        <v>1.049950692135668</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047380654733035</v>
+        <v>1.052939536614848</v>
       </c>
       <c r="J3">
-        <v>1.023748892737435</v>
+        <v>1.049222649754148</v>
       </c>
       <c r="K3">
-        <v>1.031204169453022</v>
+        <v>1.054642609205748</v>
       </c>
       <c r="L3">
-        <v>1.021143515013394</v>
+        <v>1.050826433765079</v>
       </c>
       <c r="M3">
-        <v>1.031099636576283</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.059981977310057</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008285439598006</v>
+        <v>1.033490812935473</v>
       </c>
       <c r="D4">
-        <v>1.02453770413009</v>
+        <v>1.047658058818005</v>
       </c>
       <c r="E4">
-        <v>1.014821831963503</v>
+        <v>1.044065534117377</v>
       </c>
       <c r="F4">
-        <v>1.025207838469366</v>
+        <v>1.053481156485757</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049054908567263</v>
+        <v>1.054080011637725</v>
       </c>
       <c r="J4">
-        <v>1.027479551623046</v>
+        <v>1.052074957086542</v>
       </c>
       <c r="K4">
-        <v>1.034348732960921</v>
+        <v>1.057213405159587</v>
       </c>
       <c r="L4">
-        <v>1.024744602185262</v>
+        <v>1.053659697548668</v>
       </c>
       <c r="M4">
-        <v>1.035011256423382</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.062974272807312</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010324384344162</v>
+        <v>1.035142998519199</v>
       </c>
       <c r="D5">
-        <v>1.026069050973303</v>
+        <v>1.048947081348999</v>
       </c>
       <c r="E5">
-        <v>1.016548323316585</v>
+        <v>1.045466548672034</v>
       </c>
       <c r="F5">
-        <v>1.027060887596263</v>
+        <v>1.054946028882705</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049742687611295</v>
+        <v>1.054550066271911</v>
       </c>
       <c r="J5">
-        <v>1.029019389419895</v>
+        <v>1.053256525404262</v>
       </c>
       <c r="K5">
-        <v>1.035645730117053</v>
+        <v>1.058277870684502</v>
       </c>
       <c r="L5">
-        <v>1.026231346358406</v>
+        <v>1.054833897302165</v>
       </c>
       <c r="M5">
-        <v>1.036626627565674</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.064214496545744</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010664666671884</v>
+        <v>1.035419070581233</v>
       </c>
       <c r="D6">
-        <v>1.026324634948706</v>
+        <v>1.049162496569501</v>
       </c>
       <c r="E6">
-        <v>1.01683653202979</v>
+        <v>1.045700725715305</v>
       </c>
       <c r="F6">
-        <v>1.027370231808543</v>
+        <v>1.055190879097824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04985724810187</v>
+        <v>1.054628448715267</v>
       </c>
       <c r="J6">
-        <v>1.029276307827326</v>
+        <v>1.053453909241066</v>
       </c>
       <c r="K6">
-        <v>1.035862075622516</v>
+        <v>1.058455663101182</v>
       </c>
       <c r="L6">
-        <v>1.026479428699058</v>
+        <v>1.055030080642168</v>
       </c>
       <c r="M6">
-        <v>1.036896197506657</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.064421717799032</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008312823801536</v>
+        <v>1.033512979800036</v>
       </c>
       <c r="D7">
-        <v>1.024558269888239</v>
+        <v>1.047675351444072</v>
       </c>
       <c r="E7">
-        <v>1.014845014817196</v>
+        <v>1.044084326051533</v>
       </c>
       <c r="F7">
-        <v>1.025232720114823</v>
+        <v>1.053500804988216</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049064160862658</v>
+        <v>1.054086329036064</v>
       </c>
       <c r="J7">
-        <v>1.027500237014564</v>
+        <v>1.052090813181502</v>
       </c>
       <c r="K7">
-        <v>1.034366159873432</v>
+        <v>1.057227691737405</v>
       </c>
       <c r="L7">
-        <v>1.024764572823917</v>
+        <v>1.053675452710254</v>
       </c>
       <c r="M7">
-        <v>1.035032953182855</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.062990913409923</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9981685010842872</v>
+        <v>1.025344611009102</v>
       </c>
       <c r="D8">
-        <v>1.016942494813055</v>
+        <v>1.041306713472929</v>
       </c>
       <c r="E8">
-        <v>1.006266330786496</v>
+        <v>1.03716885273073</v>
       </c>
       <c r="F8">
-        <v>1.016026439708938</v>
+        <v>1.046270044489611</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045610598245974</v>
+        <v>1.051739665583267</v>
       </c>
       <c r="J8">
-        <v>1.019829964954248</v>
+        <v>1.046242321402054</v>
       </c>
       <c r="K8">
-        <v>1.027897757413466</v>
+        <v>1.051954784661475</v>
       </c>
       <c r="L8">
-        <v>1.017362084438901</v>
+        <v>1.047867828495186</v>
       </c>
       <c r="M8">
-        <v>1.026993611955351</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.056857715744887</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9789447382056223</v>
+        <v>1.010110987500405</v>
       </c>
       <c r="D9">
-        <v>1.0025326792222</v>
+        <v>1.029452343900344</v>
       </c>
       <c r="E9">
-        <v>0.9900620323165091</v>
+        <v>1.024321094015911</v>
       </c>
       <c r="F9">
-        <v>0.9986415470800549</v>
+        <v>1.032836180414054</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038944341476813</v>
+        <v>1.047276297690631</v>
       </c>
       <c r="J9">
-        <v>1.005263566687205</v>
+        <v>1.035311684360119</v>
       </c>
       <c r="K9">
-        <v>1.015584798686034</v>
+        <v>1.042084990017608</v>
       </c>
       <c r="L9">
-        <v>1.003318430554429</v>
+        <v>1.037031528427341</v>
       </c>
       <c r="M9">
-        <v>1.011756702751967</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.045418066556422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9650397067602371</v>
+        <v>0.9993043820457524</v>
       </c>
       <c r="D10">
-        <v>0.9921358811962421</v>
+        <v>1.021064715826391</v>
       </c>
       <c r="E10">
-        <v>0.978385972898181</v>
+        <v>1.015245861823508</v>
       </c>
       <c r="F10">
-        <v>0.9861179924025714</v>
+        <v>1.023346674132033</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034045343975714</v>
+        <v>1.044054608013796</v>
       </c>
       <c r="J10">
-        <v>0.9947124968836866</v>
+        <v>1.027545626190165</v>
       </c>
       <c r="K10">
-        <v>1.006648591410827</v>
+        <v>1.035063778310571</v>
       </c>
       <c r="L10">
-        <v>0.9931567579262084</v>
+        <v>1.029345197541714</v>
       </c>
       <c r="M10">
-        <v>1.000742497391408</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.037306814769995</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9587114187584747</v>
+        <v>0.9944488300222141</v>
       </c>
       <c r="D11">
-        <v>0.9874133083794021</v>
+        <v>1.017302755428357</v>
       </c>
       <c r="E11">
-        <v>0.9730851691153461</v>
+        <v>1.01117880456696</v>
       </c>
       <c r="F11">
-        <v>0.9804331602754333</v>
+        <v>1.019093891353095</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031798978856164</v>
+        <v>1.042594796560588</v>
       </c>
       <c r="J11">
-        <v>0.9899087703310495</v>
+        <v>1.024054381606604</v>
       </c>
       <c r="K11">
-        <v>1.002576559986439</v>
+        <v>1.031905581166385</v>
       </c>
       <c r="L11">
-        <v>0.9885331580221027</v>
+        <v>1.025892939919572</v>
       </c>
       <c r="M11">
-        <v>0.9957337591542899</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.033664489715725</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9563097197580183</v>
+        <v>0.9926167016850045</v>
       </c>
       <c r="D12">
-        <v>0.9856226534479992</v>
+        <v>1.015884420950156</v>
       </c>
       <c r="E12">
-        <v>0.9710756162011535</v>
+        <v>1.009645909013096</v>
       </c>
       <c r="F12">
-        <v>0.9782781272258294</v>
+        <v>1.017490984130011</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030944069489788</v>
+        <v>1.042042211047017</v>
       </c>
       <c r="J12">
-        <v>0.9880855559002233</v>
+        <v>1.022736856612247</v>
       </c>
       <c r="K12">
-        <v>1.001030583500117</v>
+        <v>1.030713499242041</v>
       </c>
       <c r="L12">
-        <v>0.9867787645802025</v>
+        <v>1.024590612867689</v>
       </c>
       <c r="M12">
-        <v>0.9938336616045246</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.032290585076658</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9568272914228455</v>
+        <v>0.9930110277026695</v>
       </c>
       <c r="D13">
-        <v>0.9860084645653614</v>
+        <v>1.016189632289152</v>
       </c>
       <c r="E13">
-        <v>0.9715085762555544</v>
+        <v>1.009975752174078</v>
       </c>
       <c r="F13">
-        <v>0.9787424263547764</v>
+        <v>1.017835892649542</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031128408904997</v>
+        <v>1.042161221212362</v>
       </c>
       <c r="J13">
-        <v>0.9884784650792546</v>
+        <v>1.023020432221138</v>
       </c>
       <c r="K13">
-        <v>1.001363767146302</v>
+        <v>1.030970085758374</v>
       </c>
       <c r="L13">
-        <v>0.9871568215430702</v>
+        <v>1.024870895253433</v>
       </c>
       <c r="M13">
-        <v>0.9942430966701193</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.032586266480693</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9585139668989684</v>
+        <v>0.9942979811697981</v>
       </c>
       <c r="D14">
-        <v>0.9872660574461196</v>
+        <v>1.01718595214827</v>
       </c>
       <c r="E14">
-        <v>0.9729199109459188</v>
+        <v>1.011052557609743</v>
       </c>
       <c r="F14">
-        <v>0.9802559362196603</v>
+        <v>1.018961878560577</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03172874100479</v>
+        <v>1.042549334490504</v>
       </c>
       <c r="J14">
-        <v>0.9897588789462203</v>
+        <v>1.023945905996754</v>
       </c>
       <c r="K14">
-        <v>1.002449470260281</v>
+        <v>1.03180743839317</v>
       </c>
       <c r="L14">
-        <v>0.9883889151910101</v>
+        <v>1.025785705677858</v>
       </c>
       <c r="M14">
-        <v>0.9955775279058418</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.033551359202603</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9595462535723056</v>
+        <v>0.995087065130958</v>
       </c>
       <c r="D15">
-        <v>0.9880359601408321</v>
+        <v>1.017796992960823</v>
       </c>
       <c r="E15">
-        <v>0.973783978321789</v>
+        <v>1.011713020572772</v>
       </c>
       <c r="F15">
-        <v>0.9811825726241258</v>
+        <v>1.019652505143746</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032095852046621</v>
+        <v>1.042787073540695</v>
       </c>
       <c r="J15">
-        <v>0.9905425138537739</v>
+        <v>1.024513330319409</v>
       </c>
       <c r="K15">
-        <v>1.003113878929809</v>
+        <v>1.032320803064754</v>
       </c>
       <c r="L15">
-        <v>0.9891430380244132</v>
+        <v>1.026346656351509</v>
       </c>
       <c r="M15">
-        <v>0.9963943456919563</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.03414315878519</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9654528159335604</v>
+        <v>0.9996227431659293</v>
       </c>
       <c r="D16">
-        <v>0.9924443800447886</v>
+        <v>1.02131152527285</v>
       </c>
       <c r="E16">
-        <v>0.9787322967926008</v>
+        <v>1.015512753792928</v>
       </c>
       <c r="F16">
-        <v>0.9864894212554064</v>
+        <v>1.023625752477914</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034191651606021</v>
+        <v>1.044150074864628</v>
       </c>
       <c r="J16">
-        <v>0.9950260580913767</v>
+        <v>1.027774503726261</v>
       </c>
       <c r="K16">
-        <v>1.00691432353634</v>
+        <v>1.035270787032915</v>
       </c>
       <c r="L16">
-        <v>0.9934586223894044</v>
+        <v>1.029571585486811</v>
       </c>
       <c r="M16">
-        <v>1.00106956528047</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.03754568344277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9690723161050588</v>
+        <v>1.002419269045302</v>
       </c>
       <c r="D17">
-        <v>0.9951483782119964</v>
+        <v>1.023480308452601</v>
       </c>
       <c r="E17">
-        <v>0.9817681447797741</v>
+        <v>1.017858378768569</v>
       </c>
       <c r="F17">
-        <v>0.9897454186878449</v>
+        <v>1.026078471597991</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03547166862076</v>
+        <v>1.044987288421781</v>
       </c>
       <c r="J17">
-        <v>0.9977731671991545</v>
+        <v>1.029784794719416</v>
       </c>
       <c r="K17">
-        <v>1.009242012068106</v>
+        <v>1.037088797931652</v>
       </c>
       <c r="L17">
-        <v>0.996103578812384</v>
+        <v>1.031560367342731</v>
       </c>
       <c r="M17">
-        <v>1.003935669029248</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.039644195797464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9711542257673856</v>
+        <v>1.004033584297381</v>
       </c>
       <c r="D18">
-        <v>0.996704529315466</v>
+        <v>1.024732878047477</v>
       </c>
       <c r="E18">
-        <v>0.9835155483639177</v>
+        <v>1.019213396466161</v>
       </c>
       <c r="F18">
-        <v>0.9916196062545297</v>
+        <v>1.027495348810442</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036206342107034</v>
+        <v>1.045469413206162</v>
       </c>
       <c r="J18">
-        <v>0.9993530989213134</v>
+        <v>1.03094506899997</v>
       </c>
       <c r="K18">
-        <v>1.010580390371514</v>
+        <v>1.038137922721359</v>
       </c>
       <c r="L18">
-        <v>0.9976250238166469</v>
+        <v>1.032708523115698</v>
       </c>
       <c r="M18">
-        <v>1.005584581343445</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.040855774221811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9718592740353089</v>
+        <v>1.004581225724571</v>
       </c>
       <c r="D19">
-        <v>0.9972316603584217</v>
+        <v>1.02515790229639</v>
       </c>
       <c r="E19">
-        <v>0.9841075128070866</v>
+        <v>1.019673237710466</v>
       </c>
       <c r="F19">
-        <v>0.9922545326994441</v>
+        <v>1.027976181721002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036454870042219</v>
+        <v>1.045632769941468</v>
       </c>
       <c r="J19">
-        <v>0.9998881141544728</v>
+        <v>1.031338647929331</v>
       </c>
       <c r="K19">
-        <v>1.011033549626256</v>
+        <v>1.038493768487435</v>
       </c>
       <c r="L19">
-        <v>0.9981402775643211</v>
+        <v>1.033098041139112</v>
       </c>
       <c r="M19">
-        <v>1.006143046512313</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.04126682102198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9686870401800735</v>
+        <v>1.002120985643881</v>
       </c>
       <c r="D20">
-        <v>0.9948604641248687</v>
+        <v>1.023248915693293</v>
       </c>
       <c r="E20">
-        <v>0.9814448684190492</v>
+        <v>1.017608085925281</v>
       </c>
       <c r="F20">
-        <v>0.9893986923482245</v>
+        <v>1.025816751817498</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035335581436049</v>
+        <v>1.044898109647117</v>
       </c>
       <c r="J20">
-        <v>0.9974807706676719</v>
+        <v>1.029570390979105</v>
       </c>
       <c r="K20">
-        <v>1.008994292131913</v>
+        <v>1.036894919096803</v>
       </c>
       <c r="L20">
-        <v>0.995822027568328</v>
+        <v>1.031348226806827</v>
       </c>
       <c r="M20">
-        <v>1.003630550084379</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.039420342796881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9580187365956339</v>
+        <v>0.9939198116866054</v>
       </c>
       <c r="D21">
-        <v>0.9868967638840707</v>
+        <v>1.016893152039241</v>
       </c>
       <c r="E21">
-        <v>0.9725054620088784</v>
+        <v>1.010736091686173</v>
       </c>
       <c r="F21">
-        <v>0.9798114798832196</v>
+        <v>1.018630959121588</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031552539392807</v>
+        <v>1.042435335638789</v>
       </c>
       <c r="J21">
-        <v>0.9893829341482284</v>
+        <v>1.023673961154173</v>
       </c>
       <c r="K21">
-        <v>1.00213070728514</v>
+        <v>1.031561393837851</v>
       </c>
       <c r="L21">
-        <v>0.9880271450366706</v>
+        <v>1.025516880755206</v>
       </c>
       <c r="M21">
-        <v>0.9951856970826013</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.03326775495494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9510125452372323</v>
+        <v>0.9885969705558161</v>
       </c>
       <c r="D22">
-        <v>0.981676579111135</v>
+        <v>1.012774856994571</v>
       </c>
       <c r="E22">
-        <v>0.9666477050602978</v>
+        <v>1.006286005294765</v>
       </c>
       <c r="F22">
-        <v>0.9735298541856198</v>
+        <v>1.013977604015488</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029054284284745</v>
+        <v>1.040826680414796</v>
       </c>
       <c r="J22">
-        <v>0.9840642756866611</v>
+        <v>1.019845943144</v>
       </c>
       <c r="K22">
-        <v>0.9976199805775142</v>
+        <v>1.02809741950735</v>
       </c>
       <c r="L22">
-        <v>0.9829101527555835</v>
+        <v>1.021733955321983</v>
       </c>
       <c r="M22">
-        <v>0.9896445821113828</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.029277155890024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9547568090515807</v>
+        <v>0.9914352405457688</v>
       </c>
       <c r="D23">
-        <v>0.9844653391837328</v>
+        <v>1.014970141776938</v>
       </c>
       <c r="E23">
-        <v>0.9697769143268079</v>
+        <v>1.008657909697007</v>
       </c>
       <c r="F23">
-        <v>0.9768854364261513</v>
+        <v>1.016457857030441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030390646151526</v>
+        <v>1.041685387107523</v>
       </c>
       <c r="J23">
-        <v>0.9869066769946047</v>
+        <v>1.021887200928589</v>
       </c>
       <c r="K23">
-        <v>1.000030840080209</v>
+        <v>1.029944675655881</v>
       </c>
       <c r="L23">
-        <v>0.985644517256419</v>
+        <v>1.023750896541948</v>
       </c>
       <c r="M23">
-        <v>0.9926053388162337</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.031404752370244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9688612199178752</v>
+        <v>1.002255818993792</v>
       </c>
       <c r="D24">
-        <v>0.9949906248982374</v>
+        <v>1.023353510473717</v>
       </c>
       <c r="E24">
-        <v>0.9815910149855688</v>
+        <v>1.017721222996045</v>
       </c>
       <c r="F24">
-        <v>0.9895554399538659</v>
+        <v>1.025935054098837</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035397110144168</v>
+        <v>1.044938424835165</v>
       </c>
       <c r="J24">
-        <v>0.9976129610645382</v>
+        <v>1.029667308689172</v>
       </c>
       <c r="K24">
-        <v>1.009106285599869</v>
+        <v>1.036982559393542</v>
       </c>
       <c r="L24">
-        <v>0.9959493140695173</v>
+        <v>1.031444120554855</v>
       </c>
       <c r="M24">
-        <v>1.003768490507206</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.039521530695078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9840917156767764</v>
+        <v>1.014157163481032</v>
       </c>
       <c r="D25">
-        <v>1.006387171602234</v>
+        <v>1.032597709442103</v>
       </c>
       <c r="E25">
-        <v>0.9943936623235051</v>
+        <v>1.027727322264094</v>
       </c>
       <c r="F25">
-        <v>1.003288215129378</v>
+        <v>1.036397842554968</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040742686583872</v>
+        <v>1.048471561289527</v>
       </c>
       <c r="J25">
-        <v>1.00916657928179</v>
+        <v>1.03821729852434</v>
       </c>
       <c r="K25">
-        <v>1.0188871375598</v>
+        <v>1.044710218120489</v>
       </c>
       <c r="L25">
-        <v>1.007079637407117</v>
+        <v>1.039909932290631</v>
       </c>
       <c r="M25">
-        <v>1.01583569935297</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.048456233125376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023187640170922</v>
+        <v>1.018951995817235</v>
       </c>
       <c r="D2">
-        <v>1.039626293210929</v>
+        <v>1.039325812583286</v>
       </c>
       <c r="E2">
-        <v>1.035345811744463</v>
+        <v>1.022756595302072</v>
       </c>
       <c r="F2">
-        <v>1.044363865629058</v>
+        <v>1.043627935217139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051114119008693</v>
+        <v>1.057326724989831</v>
       </c>
       <c r="J2">
-        <v>1.044696260741445</v>
+        <v>1.040580263693331</v>
       </c>
       <c r="K2">
-        <v>1.050559853001182</v>
+        <v>1.050263170891194</v>
       </c>
       <c r="L2">
-        <v>1.04633374300044</v>
+        <v>1.033907743140564</v>
       </c>
       <c r="M2">
-        <v>1.055237895660998</v>
+        <v>1.054511168346385</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029505240874954</v>
+        <v>1.023196566081198</v>
       </c>
       <c r="D3">
-        <v>1.044549702438569</v>
+        <v>1.042680902625749</v>
       </c>
       <c r="E3">
-        <v>1.040688994602209</v>
+        <v>1.026146429202696</v>
       </c>
       <c r="F3">
-        <v>1.049950692135668</v>
+        <v>1.047484111177962</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052939536614848</v>
+        <v>1.058895900232825</v>
       </c>
       <c r="J3">
-        <v>1.049222649754148</v>
+        <v>1.043074241295861</v>
       </c>
       <c r="K3">
-        <v>1.054642609205748</v>
+        <v>1.052795314713729</v>
       </c>
       <c r="L3">
-        <v>1.050826433765079</v>
+        <v>1.036455344425028</v>
       </c>
       <c r="M3">
-        <v>1.059981977310057</v>
+        <v>1.057543441099188</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033490812935473</v>
+        <v>1.02589023449915</v>
       </c>
       <c r="D4">
-        <v>1.047658058818005</v>
+        <v>1.044812431441097</v>
       </c>
       <c r="E4">
-        <v>1.044065534117377</v>
+        <v>1.028303227647343</v>
       </c>
       <c r="F4">
-        <v>1.053481156485757</v>
+        <v>1.049935642538986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054080011637725</v>
+        <v>1.059882161962274</v>
       </c>
       <c r="J4">
-        <v>1.052074957086542</v>
+        <v>1.044654076893722</v>
       </c>
       <c r="K4">
-        <v>1.057213405159587</v>
+        <v>1.054398497718216</v>
       </c>
       <c r="L4">
-        <v>1.053659697548668</v>
+        <v>1.038071649123588</v>
       </c>
       <c r="M4">
-        <v>1.062974272807312</v>
+        <v>1.059466548225948</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035142998519199</v>
+        <v>1.027010415860605</v>
       </c>
       <c r="D5">
-        <v>1.048947081348999</v>
+        <v>1.045699362769168</v>
       </c>
       <c r="E5">
-        <v>1.045466548672034</v>
+        <v>1.029201444192569</v>
       </c>
       <c r="F5">
-        <v>1.054946028882705</v>
+        <v>1.050956136140311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054550066271911</v>
+        <v>1.060289976962632</v>
       </c>
       <c r="J5">
-        <v>1.053256525404262</v>
+        <v>1.045310342217018</v>
       </c>
       <c r="K5">
-        <v>1.058277870684502</v>
+        <v>1.055064256647881</v>
       </c>
       <c r="L5">
-        <v>1.054833897302165</v>
+        <v>1.038743663765643</v>
       </c>
       <c r="M5">
-        <v>1.064214496545744</v>
+        <v>1.060265957114201</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035419070581233</v>
+        <v>1.027197793410053</v>
       </c>
       <c r="D6">
-        <v>1.049162496569501</v>
+        <v>1.045847752961404</v>
       </c>
       <c r="E6">
-        <v>1.045700725715305</v>
+        <v>1.029351767878936</v>
       </c>
       <c r="F6">
-        <v>1.055190879097824</v>
+        <v>1.051126896653752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054628448715267</v>
+        <v>1.060358056018614</v>
       </c>
       <c r="J6">
-        <v>1.053453909241066</v>
+        <v>1.0454200753293</v>
       </c>
       <c r="K6">
-        <v>1.058455663101182</v>
+        <v>1.055175564952707</v>
       </c>
       <c r="L6">
-        <v>1.055030080642168</v>
+        <v>1.038856065577916</v>
       </c>
       <c r="M6">
-        <v>1.064421717799032</v>
+        <v>1.060399657290022</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033512979800036</v>
+        <v>1.025905249962015</v>
       </c>
       <c r="D7">
-        <v>1.047675351444072</v>
+        <v>1.044824318306301</v>
       </c>
       <c r="E7">
-        <v>1.044084326051533</v>
+        <v>1.028315262712697</v>
       </c>
       <c r="F7">
-        <v>1.053500804988216</v>
+        <v>1.049949317808267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054086329036064</v>
+        <v>1.059887637759345</v>
       </c>
       <c r="J7">
-        <v>1.052090813181502</v>
+        <v>1.044662876682056</v>
       </c>
       <c r="K7">
-        <v>1.057227691737405</v>
+        <v>1.05440742562273</v>
       </c>
       <c r="L7">
-        <v>1.053675452710254</v>
+        <v>1.038080657721789</v>
       </c>
       <c r="M7">
-        <v>1.062990913409923</v>
+        <v>1.059477265243409</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025344611009102</v>
+        <v>1.02039766837615</v>
       </c>
       <c r="D8">
-        <v>1.041306713472929</v>
+        <v>1.040468018598054</v>
       </c>
       <c r="E8">
-        <v>1.03716885273073</v>
+        <v>1.023909962395382</v>
       </c>
       <c r="F8">
-        <v>1.046270044489611</v>
+        <v>1.044940390930816</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051739665583267</v>
+        <v>1.057863157302245</v>
       </c>
       <c r="J8">
-        <v>1.046242321402054</v>
+        <v>1.041430281186894</v>
       </c>
       <c r="K8">
-        <v>1.051954784661475</v>
+        <v>1.051126366842602</v>
       </c>
       <c r="L8">
-        <v>1.047867828495186</v>
+        <v>1.034775512403558</v>
       </c>
       <c r="M8">
-        <v>1.056857715744887</v>
+        <v>1.055544173148928</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010110987500405</v>
+        <v>1.010268117893468</v>
       </c>
       <c r="D9">
-        <v>1.029452343900344</v>
+        <v>1.032476460850997</v>
       </c>
       <c r="E9">
-        <v>1.024321094015911</v>
+        <v>1.015853684136785</v>
       </c>
       <c r="F9">
-        <v>1.032836180414054</v>
+        <v>1.035764192787362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047276297690631</v>
+        <v>1.054065455780695</v>
       </c>
       <c r="J9">
-        <v>1.035311684360119</v>
+        <v>1.035463421089202</v>
       </c>
       <c r="K9">
-        <v>1.042084990017608</v>
+        <v>1.045063722937323</v>
       </c>
       <c r="L9">
-        <v>1.037031528427341</v>
+        <v>1.028694678312907</v>
       </c>
       <c r="M9">
-        <v>1.045418066556422</v>
+        <v>1.048302496865895</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9993043820457524</v>
+        <v>1.003200512943378</v>
       </c>
       <c r="D10">
-        <v>1.021064715826391</v>
+        <v>1.026917422884903</v>
       </c>
       <c r="E10">
-        <v>1.015245861823508</v>
+        <v>1.010266450816938</v>
       </c>
       <c r="F10">
-        <v>1.023346674132033</v>
+        <v>1.029388862431685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044054608013796</v>
+        <v>1.05136779193947</v>
       </c>
       <c r="J10">
-        <v>1.027545626190165</v>
+        <v>1.031287721739541</v>
       </c>
       <c r="K10">
-        <v>1.035063778310571</v>
+        <v>1.040817107361128</v>
       </c>
       <c r="L10">
-        <v>1.029345197541714</v>
+        <v>1.024452782827715</v>
       </c>
       <c r="M10">
-        <v>1.037306814769995</v>
+        <v>1.043247019673252</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9944488300222141</v>
+        <v>1.000058536175368</v>
       </c>
       <c r="D11">
-        <v>1.017302755428357</v>
+        <v>1.024450780991224</v>
       </c>
       <c r="E11">
-        <v>1.01117880456696</v>
+        <v>1.007791248104387</v>
       </c>
       <c r="F11">
-        <v>1.019093891353095</v>
+        <v>1.026561686124621</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042594796560588</v>
+        <v>1.050157686008524</v>
       </c>
       <c r="J11">
-        <v>1.024054381606604</v>
+        <v>1.029428880177024</v>
       </c>
       <c r="K11">
-        <v>1.031905581166385</v>
+        <v>1.038925866816366</v>
       </c>
       <c r="L11">
-        <v>1.025892939919572</v>
+        <v>1.022567713592645</v>
       </c>
       <c r="M11">
-        <v>1.033664489715725</v>
+        <v>1.040999489773941</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9926167016850045</v>
+        <v>0.9988785562533434</v>
       </c>
       <c r="D12">
-        <v>1.015884420950156</v>
+        <v>1.023525190980995</v>
       </c>
       <c r="E12">
-        <v>1.009645909013096</v>
+        <v>1.006863035776266</v>
       </c>
       <c r="F12">
-        <v>1.017490984130011</v>
+        <v>1.025501043843334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042042211047017</v>
+        <v>1.049701646704259</v>
       </c>
       <c r="J12">
-        <v>1.022736856612247</v>
+        <v>1.02873045354145</v>
       </c>
       <c r="K12">
-        <v>1.030713499242041</v>
+        <v>1.038215150183147</v>
       </c>
       <c r="L12">
-        <v>1.024590612867689</v>
+        <v>1.021859921525023</v>
       </c>
       <c r="M12">
-        <v>1.032290585076658</v>
+        <v>1.040155466031093</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9930110277026695</v>
+        <v>0.9991322609173477</v>
       </c>
       <c r="D13">
-        <v>1.016189632289152</v>
+        <v>1.023724164261935</v>
       </c>
       <c r="E13">
-        <v>1.009975752174078</v>
+        <v>1.007062546162885</v>
       </c>
       <c r="F13">
-        <v>1.017835892649542</v>
+        <v>1.025729038786159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042161221212362</v>
+        <v>1.04979976923604</v>
       </c>
       <c r="J13">
-        <v>1.023020432221138</v>
+        <v>1.028880634914941</v>
       </c>
       <c r="K13">
-        <v>1.030970085758374</v>
+        <v>1.038367979389901</v>
       </c>
       <c r="L13">
-        <v>1.024870895253433</v>
+        <v>1.02201209458679</v>
       </c>
       <c r="M13">
-        <v>1.032586266480693</v>
+        <v>1.040336934702236</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9942979811697981</v>
+        <v>0.9999612658828974</v>
       </c>
       <c r="D14">
-        <v>1.01718595214827</v>
+        <v>1.024374465108825</v>
       </c>
       <c r="E14">
-        <v>1.011052557609743</v>
+        <v>1.007714704029166</v>
       </c>
       <c r="F14">
-        <v>1.018961878560577</v>
+        <v>1.026474230332843</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042549334490504</v>
+        <v>1.050120124772083</v>
       </c>
       <c r="J14">
-        <v>1.023945905996754</v>
+        <v>1.029371312689086</v>
       </c>
       <c r="K14">
-        <v>1.03180743839317</v>
+        <v>1.038867288654861</v>
       </c>
       <c r="L14">
-        <v>1.025785705677858</v>
+        <v>1.022509364205379</v>
       </c>
       <c r="M14">
-        <v>1.033551359202603</v>
+        <v>1.040929912439676</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.995087065130958</v>
+        <v>1.000470312619165</v>
       </c>
       <c r="D15">
-        <v>1.017796992960823</v>
+        <v>1.024773882265866</v>
       </c>
       <c r="E15">
-        <v>1.011713020572772</v>
+        <v>1.008115339533693</v>
       </c>
       <c r="F15">
-        <v>1.019652505143746</v>
+        <v>1.026931960355398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042787073540695</v>
+        <v>1.050316630675401</v>
       </c>
       <c r="J15">
-        <v>1.024513330319409</v>
+        <v>1.029672568574001</v>
       </c>
       <c r="K15">
-        <v>1.032320803064754</v>
+        <v>1.039173828779449</v>
       </c>
       <c r="L15">
-        <v>1.026346656351509</v>
+        <v>1.022814731795582</v>
       </c>
       <c r="M15">
-        <v>1.03414315878519</v>
+        <v>1.041294035119975</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9996227431659293</v>
+        <v>1.003407261332571</v>
       </c>
       <c r="D16">
-        <v>1.02131152527285</v>
+        <v>1.027079835716761</v>
       </c>
       <c r="E16">
-        <v>1.015512753792928</v>
+        <v>1.010429509454392</v>
       </c>
       <c r="F16">
-        <v>1.023625752477914</v>
+        <v>1.02957504774483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044150074864628</v>
+        <v>1.051447197481369</v>
       </c>
       <c r="J16">
-        <v>1.027774503726261</v>
+        <v>1.031409988808416</v>
       </c>
       <c r="K16">
-        <v>1.035270787032915</v>
+        <v>1.040941488878744</v>
       </c>
       <c r="L16">
-        <v>1.029571585486811</v>
+        <v>1.024576842756301</v>
       </c>
       <c r="M16">
-        <v>1.03754568344277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.043394914760553</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002419269045302</v>
+        <v>1.0052272295434</v>
       </c>
       <c r="D17">
-        <v>1.023480308452601</v>
+        <v>1.028510067227039</v>
       </c>
       <c r="E17">
-        <v>1.017858378768569</v>
+        <v>1.011865878081404</v>
       </c>
       <c r="F17">
-        <v>1.026078471597991</v>
+        <v>1.03121481177212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044987288421781</v>
+        <v>1.052144961494993</v>
       </c>
       <c r="J17">
-        <v>1.029784794719416</v>
+        <v>1.032486004534596</v>
       </c>
       <c r="K17">
-        <v>1.037088797931652</v>
+        <v>1.042036019325985</v>
       </c>
       <c r="L17">
-        <v>1.031560367342731</v>
+        <v>1.025669005747212</v>
       </c>
       <c r="M17">
-        <v>1.039644195797464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.044696806974607</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004033584297381</v>
+        <v>1.006280952964406</v>
       </c>
       <c r="D18">
-        <v>1.024732878047477</v>
+        <v>1.029338582130845</v>
       </c>
       <c r="E18">
-        <v>1.019213396466161</v>
+        <v>1.012698323958595</v>
       </c>
       <c r="F18">
-        <v>1.027495348810442</v>
+        <v>1.032164865883278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045469413206162</v>
+        <v>1.052547920221684</v>
       </c>
       <c r="J18">
-        <v>1.03094506899997</v>
+        <v>1.033108755604078</v>
       </c>
       <c r="K18">
-        <v>1.038137922721359</v>
+        <v>1.042669406577716</v>
       </c>
       <c r="L18">
-        <v>1.032708523115698</v>
+        <v>1.026301409479067</v>
       </c>
       <c r="M18">
-        <v>1.040855774221811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.045450565412099</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004581225724571</v>
+        <v>1.006638935578696</v>
       </c>
       <c r="D19">
-        <v>1.02515790229639</v>
+        <v>1.029620127396083</v>
       </c>
       <c r="E19">
-        <v>1.019673237710466</v>
+        <v>1.012981268893529</v>
       </c>
       <c r="F19">
-        <v>1.027976181721002</v>
+        <v>1.032487740031369</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045632769941468</v>
+        <v>1.052684641393719</v>
       </c>
       <c r="J19">
-        <v>1.031338647929331</v>
+        <v>1.033320281667818</v>
       </c>
       <c r="K19">
-        <v>1.038493768487435</v>
+        <v>1.042884531676579</v>
       </c>
       <c r="L19">
-        <v>1.033098041139112</v>
+        <v>1.026516266269367</v>
       </c>
       <c r="M19">
-        <v>1.04126682102198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.045706637366562</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002120985643881</v>
+        <v>1.005032778913614</v>
       </c>
       <c r="D20">
-        <v>1.023248915693293</v>
+        <v>1.028357211025109</v>
       </c>
       <c r="E20">
-        <v>1.017608085925281</v>
+        <v>1.011712327022254</v>
       </c>
       <c r="F20">
-        <v>1.025816751817498</v>
+        <v>1.031039545296028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044898109647117</v>
+        <v>1.052070517102589</v>
       </c>
       <c r="J20">
-        <v>1.029570390979105</v>
+        <v>1.032371064472057</v>
       </c>
       <c r="K20">
-        <v>1.036894919096803</v>
+        <v>1.041919109693924</v>
       </c>
       <c r="L20">
-        <v>1.031348226806827</v>
+        <v>1.025552308932919</v>
       </c>
       <c r="M20">
-        <v>1.039420342796881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.044557709720398</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9939198116866054</v>
+        <v>0.9997175063232024</v>
       </c>
       <c r="D21">
-        <v>1.016893152039241</v>
+        <v>1.024183229895629</v>
       </c>
       <c r="E21">
-        <v>1.010736091686173</v>
+        <v>1.007522906499183</v>
       </c>
       <c r="F21">
-        <v>1.018630959121588</v>
+        <v>1.026255084062029</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042435335638789</v>
+        <v>1.050025970942808</v>
       </c>
       <c r="J21">
-        <v>1.023673961154173</v>
+        <v>1.029227043231239</v>
       </c>
       <c r="K21">
-        <v>1.031561393837851</v>
+        <v>1.038720484504106</v>
       </c>
       <c r="L21">
-        <v>1.025516880755206</v>
+        <v>1.022363143124184</v>
       </c>
       <c r="M21">
-        <v>1.03326775495494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.040755552381782</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885969705558161</v>
+        <v>0.9963005420819663</v>
       </c>
       <c r="D22">
-        <v>1.012774856994571</v>
+        <v>1.021504444460411</v>
       </c>
       <c r="E22">
-        <v>1.006286005294765</v>
+        <v>1.004837644739859</v>
       </c>
       <c r="F22">
-        <v>1.013977604015488</v>
+        <v>1.023185867690661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040826680414796</v>
+        <v>1.048702443978817</v>
       </c>
       <c r="J22">
-        <v>1.019845943144</v>
+        <v>1.027203971138117</v>
       </c>
       <c r="K22">
-        <v>1.02809741950735</v>
+        <v>1.036661601433198</v>
       </c>
       <c r="L22">
-        <v>1.021733955321983</v>
+        <v>1.020313872272327</v>
       </c>
       <c r="M22">
-        <v>1.029277155890024</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.038311588589075</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9914352405457688</v>
+        <v>0.9981192779673383</v>
       </c>
       <c r="D23">
-        <v>1.014970141776938</v>
+        <v>1.022929827917592</v>
       </c>
       <c r="E23">
-        <v>1.008657909697007</v>
+        <v>1.006266151801171</v>
       </c>
       <c r="F23">
-        <v>1.016457857030441</v>
+        <v>1.024818876227396</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041685387107523</v>
+        <v>1.049407761311651</v>
       </c>
       <c r="J23">
-        <v>1.021887200928589</v>
+        <v>1.028280950671843</v>
       </c>
       <c r="K23">
-        <v>1.029944675655881</v>
+        <v>1.03775770571443</v>
       </c>
       <c r="L23">
-        <v>1.023750896541948</v>
+        <v>1.021404529281394</v>
       </c>
       <c r="M23">
-        <v>1.031404752370244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.039612383695746</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002255818993792</v>
+        <v>1.005120666943689</v>
       </c>
       <c r="D24">
-        <v>1.023353510473717</v>
+        <v>1.028426297793557</v>
       </c>
       <c r="E24">
-        <v>1.017721222996045</v>
+        <v>1.011781726681897</v>
       </c>
       <c r="F24">
-        <v>1.025935054098837</v>
+        <v>1.03111876039148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044938424835165</v>
+        <v>1.052104167771543</v>
       </c>
       <c r="J24">
-        <v>1.029667308689172</v>
+        <v>1.032423015965588</v>
       </c>
       <c r="K24">
-        <v>1.036982559393542</v>
+        <v>1.041971951655213</v>
       </c>
       <c r="L24">
-        <v>1.031444120554855</v>
+        <v>1.025605053503938</v>
       </c>
       <c r="M24">
-        <v>1.039521530695078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.044620579099613</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014157163481032</v>
+        <v>1.012940048748256</v>
       </c>
       <c r="D25">
-        <v>1.032597709442103</v>
+        <v>1.034581752626384</v>
       </c>
       <c r="E25">
-        <v>1.027727322264094</v>
+        <v>1.017973104570065</v>
       </c>
       <c r="F25">
-        <v>1.036397842554968</v>
+        <v>1.038180169295794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048471561289527</v>
+        <v>1.055075639117822</v>
       </c>
       <c r="J25">
-        <v>1.03821729852434</v>
+        <v>1.037039640577704</v>
       </c>
       <c r="K25">
-        <v>1.044710218120489</v>
+        <v>1.046665943583743</v>
       </c>
       <c r="L25">
-        <v>1.039909932290631</v>
+        <v>1.030298674063004</v>
       </c>
       <c r="M25">
-        <v>1.048456233125376</v>
+        <v>1.050213350060715</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018951995817235</v>
+        <v>1.041804464500799</v>
       </c>
       <c r="D2">
-        <v>1.039325812583286</v>
+        <v>1.051057722846995</v>
       </c>
       <c r="E2">
-        <v>1.022756595302072</v>
+        <v>1.0400258124473</v>
       </c>
       <c r="F2">
-        <v>1.043627935217139</v>
+        <v>1.059670161041093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057326724989831</v>
+        <v>1.046515349916376</v>
       </c>
       <c r="J2">
-        <v>1.040580263693331</v>
+        <v>1.046883698422676</v>
       </c>
       <c r="K2">
-        <v>1.050263170891194</v>
+        <v>1.053810279920723</v>
       </c>
       <c r="L2">
-        <v>1.033907743140564</v>
+        <v>1.0428093309011</v>
       </c>
       <c r="M2">
-        <v>1.054511168346385</v>
+        <v>1.062399032429219</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023196566081198</v>
+        <v>1.042699779461084</v>
       </c>
       <c r="D3">
-        <v>1.042680902625749</v>
+        <v>1.051785684973363</v>
       </c>
       <c r="E3">
-        <v>1.026146429202696</v>
+        <v>1.040786244702253</v>
       </c>
       <c r="F3">
-        <v>1.047484111177962</v>
+        <v>1.060529093033269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058895900232825</v>
+        <v>1.046786279295741</v>
       </c>
       <c r="J3">
-        <v>1.043074241295861</v>
+        <v>1.047425461809877</v>
       </c>
       <c r="K3">
-        <v>1.052795314713729</v>
+        <v>1.05435103014468</v>
       </c>
       <c r="L3">
-        <v>1.036455344425028</v>
+        <v>1.043380233574392</v>
       </c>
       <c r="M3">
-        <v>1.057543441099188</v>
+        <v>1.06307212643042</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02589023449915</v>
+        <v>1.043279636703859</v>
       </c>
       <c r="D4">
-        <v>1.044812431441097</v>
+        <v>1.05225715070812</v>
       </c>
       <c r="E4">
-        <v>1.028303227647343</v>
+        <v>1.041279114036584</v>
       </c>
       <c r="F4">
-        <v>1.049935642538986</v>
+        <v>1.061085641440233</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059882161962274</v>
+        <v>1.046960567263924</v>
       </c>
       <c r="J4">
-        <v>1.044654076893722</v>
+        <v>1.047775896780013</v>
       </c>
       <c r="K4">
-        <v>1.054398497718216</v>
+        <v>1.054700686201351</v>
       </c>
       <c r="L4">
-        <v>1.038071649123588</v>
+        <v>1.043749801297007</v>
       </c>
       <c r="M4">
-        <v>1.059466548225948</v>
+        <v>1.063507779662342</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027010415860605</v>
+        <v>1.043523533902915</v>
       </c>
       <c r="D5">
-        <v>1.045699362769168</v>
+        <v>1.052455455200363</v>
       </c>
       <c r="E5">
-        <v>1.029201444192569</v>
+        <v>1.041486510733213</v>
       </c>
       <c r="F5">
-        <v>1.050956136140311</v>
+        <v>1.061319795130717</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060289976962632</v>
+        <v>1.047033592648053</v>
       </c>
       <c r="J5">
-        <v>1.045310342217018</v>
+        <v>1.04792318925728</v>
       </c>
       <c r="K5">
-        <v>1.055064256647881</v>
+        <v>1.0548476216312</v>
       </c>
       <c r="L5">
-        <v>1.038743663765643</v>
+        <v>1.043905203574987</v>
       </c>
       <c r="M5">
-        <v>1.060265957114201</v>
+        <v>1.063690954743024</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027197793410053</v>
+        <v>1.0435644926198</v>
       </c>
       <c r="D6">
-        <v>1.045847752961404</v>
+        <v>1.052488757232649</v>
       </c>
       <c r="E6">
-        <v>1.029351767878936</v>
+        <v>1.04152134490608</v>
       </c>
       <c r="F6">
-        <v>1.051126896653752</v>
+        <v>1.061359121115607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060358056018614</v>
+        <v>1.047045839526733</v>
       </c>
       <c r="J6">
-        <v>1.0454200753293</v>
+        <v>1.047947918497557</v>
       </c>
       <c r="K6">
-        <v>1.055175564952707</v>
+        <v>1.054872289184393</v>
       </c>
       <c r="L6">
-        <v>1.038856065577916</v>
+        <v>1.043931298377179</v>
       </c>
       <c r="M6">
-        <v>1.060399657290022</v>
+        <v>1.063721712155978</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025905249962015</v>
+        <v>1.043282895179825</v>
       </c>
       <c r="D7">
-        <v>1.044824318306301</v>
+        <v>1.052259800070339</v>
       </c>
       <c r="E7">
-        <v>1.028315262712697</v>
+        <v>1.041281884519431</v>
       </c>
       <c r="F7">
-        <v>1.049949317808267</v>
+        <v>1.061088769505224</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059887637759345</v>
+        <v>1.046961543997376</v>
       </c>
       <c r="J7">
-        <v>1.044662876682056</v>
+        <v>1.047777865030116</v>
       </c>
       <c r="K7">
-        <v>1.05440742562273</v>
+        <v>1.054702649796931</v>
       </c>
       <c r="L7">
-        <v>1.038080657721789</v>
+        <v>1.043751877649902</v>
       </c>
       <c r="M7">
-        <v>1.059477265243409</v>
+        <v>1.063510227154519</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02039766837615</v>
+        <v>1.042106930131979</v>
       </c>
       <c r="D8">
-        <v>1.040468018598054</v>
+        <v>1.051303651989023</v>
       </c>
       <c r="E8">
-        <v>1.023909962395382</v>
+        <v>1.040282633586254</v>
       </c>
       <c r="F8">
-        <v>1.044940390930816</v>
+        <v>1.059960282349027</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057863157302245</v>
+        <v>1.046607122823236</v>
       </c>
       <c r="J8">
-        <v>1.041430281186894</v>
+        <v>1.047066814507837</v>
       </c>
       <c r="K8">
-        <v>1.051126366842602</v>
+        <v>1.053993079098522</v>
       </c>
       <c r="L8">
-        <v>1.034775512403558</v>
+        <v>1.043002237195611</v>
       </c>
       <c r="M8">
-        <v>1.055544173148928</v>
+        <v>1.062626482750753</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010268117893468</v>
+        <v>1.040038836832393</v>
       </c>
       <c r="D9">
-        <v>1.032476460850997</v>
+        <v>1.049622126129068</v>
       </c>
       <c r="E9">
-        <v>1.015853684136785</v>
+        <v>1.038528167532488</v>
       </c>
       <c r="F9">
-        <v>1.035764192787362</v>
+        <v>1.057977653747417</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054065455780695</v>
+        <v>1.045974796983972</v>
       </c>
       <c r="J9">
-        <v>1.035463421089202</v>
+        <v>1.045812967223023</v>
       </c>
       <c r="K9">
-        <v>1.045063722937323</v>
+        <v>1.052740897854564</v>
       </c>
       <c r="L9">
-        <v>1.028694678312907</v>
+        <v>1.041682520098875</v>
       </c>
       <c r="M9">
-        <v>1.048302496865895</v>
+        <v>1.061070165836893</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003200512943378</v>
+        <v>1.038662948291843</v>
       </c>
       <c r="D10">
-        <v>1.026917422884903</v>
+        <v>1.048503441270084</v>
       </c>
       <c r="E10">
-        <v>1.010266450816938</v>
+        <v>1.037362882314298</v>
       </c>
       <c r="F10">
-        <v>1.029388862431685</v>
+        <v>1.056659974472932</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05136779193947</v>
+        <v>1.045548052396475</v>
       </c>
       <c r="J10">
-        <v>1.031287721739541</v>
+        <v>1.044976541133953</v>
       </c>
       <c r="K10">
-        <v>1.040817107361128</v>
+        <v>1.051904953384449</v>
       </c>
       <c r="L10">
-        <v>1.024452782827715</v>
+        <v>1.040803618527564</v>
       </c>
       <c r="M10">
-        <v>1.043247019673252</v>
+        <v>1.060033345802536</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000058536175368</v>
+        <v>1.038067863425091</v>
       </c>
       <c r="D11">
-        <v>1.024450780991224</v>
+        <v>1.048019611322685</v>
       </c>
       <c r="E11">
-        <v>1.007791248104387</v>
+        <v>1.036859354773078</v>
       </c>
       <c r="F11">
-        <v>1.026561686124621</v>
+        <v>1.056090391787378</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050157686008524</v>
+        <v>1.045362044470579</v>
       </c>
       <c r="J11">
-        <v>1.029428880177024</v>
+        <v>1.044614248293596</v>
       </c>
       <c r="K11">
-        <v>1.038925866816366</v>
+        <v>1.051542720730963</v>
       </c>
       <c r="L11">
-        <v>1.022567713592645</v>
+        <v>1.040423275478066</v>
       </c>
       <c r="M11">
-        <v>1.040999489773941</v>
+        <v>1.05958458061528</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9988785562533434</v>
+        <v>1.037846926454083</v>
       </c>
       <c r="D12">
-        <v>1.023525190980995</v>
+        <v>1.047839982251595</v>
       </c>
       <c r="E12">
-        <v>1.006863035776266</v>
+        <v>1.036672481379919</v>
       </c>
       <c r="F12">
-        <v>1.025501043843334</v>
+        <v>1.055878972495927</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049701646704259</v>
+        <v>1.045292769557615</v>
       </c>
       <c r="J12">
-        <v>1.02873045354145</v>
+        <v>1.044479660468146</v>
       </c>
       <c r="K12">
-        <v>1.038215150183147</v>
+        <v>1.051408133040308</v>
       </c>
       <c r="L12">
-        <v>1.021859921525023</v>
+        <v>1.040282034474446</v>
       </c>
       <c r="M12">
-        <v>1.040155466031093</v>
+        <v>1.059417918388518</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9991322609173477</v>
+        <v>1.037894313455375</v>
       </c>
       <c r="D13">
-        <v>1.023724164261935</v>
+        <v>1.047878509338685</v>
       </c>
       <c r="E13">
-        <v>1.007062546162885</v>
+        <v>1.036712559129195</v>
       </c>
       <c r="F13">
-        <v>1.025729038786159</v>
+        <v>1.055924315878616</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04979976923604</v>
+        <v>1.045307637544308</v>
       </c>
       <c r="J13">
-        <v>1.028880634914941</v>
+        <v>1.044508530725691</v>
       </c>
       <c r="K13">
-        <v>1.038367979389901</v>
+        <v>1.051437004273414</v>
       </c>
       <c r="L13">
-        <v>1.02201209458679</v>
+        <v>1.040312329530453</v>
       </c>
       <c r="M13">
-        <v>1.040336934702236</v>
+        <v>1.05945366666068</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9999612658828974</v>
+        <v>1.038049598576195</v>
       </c>
       <c r="D14">
-        <v>1.024374465108825</v>
+        <v>1.048004761345471</v>
       </c>
       <c r="E14">
-        <v>1.007714704029166</v>
+        <v>1.03684390450409</v>
       </c>
       <c r="F14">
-        <v>1.026474230332843</v>
+        <v>1.05607291275195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050120124772083</v>
+        <v>1.045356321919549</v>
       </c>
       <c r="J14">
-        <v>1.029371312689086</v>
+        <v>1.044603123544608</v>
       </c>
       <c r="K14">
-        <v>1.038867288654861</v>
+        <v>1.051531596446035</v>
       </c>
       <c r="L14">
-        <v>1.022509364205379</v>
+        <v>1.040411599724693</v>
       </c>
       <c r="M14">
-        <v>1.040929912439676</v>
+        <v>1.059570803661023</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000470312619165</v>
+        <v>1.038145288689747</v>
       </c>
       <c r="D15">
-        <v>1.024773882265866</v>
+        <v>1.048082560937927</v>
       </c>
       <c r="E15">
-        <v>1.008115339533693</v>
+        <v>1.036924851862195</v>
       </c>
       <c r="F15">
-        <v>1.026931960355398</v>
+        <v>1.05616448799438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050316630675401</v>
+        <v>1.045386293703876</v>
       </c>
       <c r="J15">
-        <v>1.029672568574001</v>
+        <v>1.044661403197912</v>
       </c>
       <c r="K15">
-        <v>1.039173828779449</v>
+        <v>1.051589872758619</v>
       </c>
       <c r="L15">
-        <v>1.022814731795582</v>
+        <v>1.040472768086929</v>
       </c>
       <c r="M15">
-        <v>1.041294035119975</v>
+        <v>1.059642979536586</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003407261332571</v>
+        <v>1.038702456634549</v>
       </c>
       <c r="D16">
-        <v>1.027079835716761</v>
+        <v>1.048535563571906</v>
       </c>
       <c r="E16">
-        <v>1.010429509454392</v>
+        <v>1.03739632200994</v>
       </c>
       <c r="F16">
-        <v>1.02957504774483</v>
+        <v>1.056697796614182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051447197481369</v>
+        <v>1.045560371387419</v>
       </c>
       <c r="J16">
-        <v>1.031409988808416</v>
+        <v>1.04500058299274</v>
       </c>
       <c r="K16">
-        <v>1.040941488878744</v>
+        <v>1.051928988128898</v>
       </c>
       <c r="L16">
-        <v>1.024576842756301</v>
+        <v>1.040828865532294</v>
       </c>
       <c r="M16">
-        <v>1.043394914760553</v>
+        <v>1.060063132880839</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.0052272295434</v>
+        <v>1.039052137387636</v>
       </c>
       <c r="D17">
-        <v>1.028510067227039</v>
+        <v>1.048819873336705</v>
       </c>
       <c r="E17">
-        <v>1.011865878081404</v>
+        <v>1.037692344665592</v>
       </c>
       <c r="F17">
-        <v>1.03121481177212</v>
+        <v>1.057032590881072</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052144961494993</v>
+        <v>1.045669238332236</v>
       </c>
       <c r="J17">
-        <v>1.032486004534596</v>
+        <v>1.04521331156393</v>
       </c>
       <c r="K17">
-        <v>1.042036019325985</v>
+        <v>1.052141636616666</v>
       </c>
       <c r="L17">
-        <v>1.025669005747212</v>
+        <v>1.04105229771943</v>
       </c>
       <c r="M17">
-        <v>1.044696806974607</v>
+        <v>1.060326734412798</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006280952964406</v>
+        <v>1.039256166159455</v>
       </c>
       <c r="D18">
-        <v>1.029338582130845</v>
+        <v>1.048985761108059</v>
       </c>
       <c r="E18">
-        <v>1.012698323958595</v>
+        <v>1.037865110743881</v>
       </c>
       <c r="F18">
-        <v>1.032164865883278</v>
+        <v>1.057227965265747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052547920221684</v>
+        <v>1.045732620365364</v>
       </c>
       <c r="J18">
-        <v>1.033108755604078</v>
+        <v>1.045337381386543</v>
       </c>
       <c r="K18">
-        <v>1.042669406577716</v>
+        <v>1.052265645409113</v>
       </c>
       <c r="L18">
-        <v>1.026301409479067</v>
+        <v>1.041182643767281</v>
       </c>
       <c r="M18">
-        <v>1.045450565412099</v>
+        <v>1.060480506456965</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006638935578696</v>
+        <v>1.0393257458375</v>
       </c>
       <c r="D19">
-        <v>1.029620127396083</v>
+        <v>1.04904233378038</v>
       </c>
       <c r="E19">
-        <v>1.012981268893529</v>
+        <v>1.037924036606467</v>
       </c>
       <c r="F19">
-        <v>1.032487740031369</v>
+        <v>1.057294598868912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052684641393719</v>
+        <v>1.045754211928012</v>
       </c>
       <c r="J19">
-        <v>1.033320281667818</v>
+        <v>1.045379684063928</v>
       </c>
       <c r="K19">
-        <v>1.042884531676579</v>
+        <v>1.052307924845998</v>
       </c>
       <c r="L19">
-        <v>1.026516266269367</v>
+        <v>1.041227092067468</v>
       </c>
       <c r="M19">
-        <v>1.045706637366562</v>
+        <v>1.060532941715256</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005032778913614</v>
+        <v>1.039014613126025</v>
       </c>
       <c r="D20">
-        <v>1.028357211025109</v>
+        <v>1.048789363920767</v>
       </c>
       <c r="E20">
-        <v>1.011712327022254</v>
+        <v>1.037660573770255</v>
       </c>
       <c r="F20">
-        <v>1.031039545296028</v>
+        <v>1.056996660832534</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052070517102589</v>
+        <v>1.045657570161648</v>
       </c>
       <c r="J20">
-        <v>1.032371064472057</v>
+        <v>1.045190488947106</v>
       </c>
       <c r="K20">
-        <v>1.041919109693924</v>
+        <v>1.052118824072614</v>
       </c>
       <c r="L20">
-        <v>1.025552308932919</v>
+        <v>1.04102832329319</v>
       </c>
       <c r="M20">
-        <v>1.044557709720398</v>
+        <v>1.06029845061913</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9997175063232024</v>
+        <v>1.03800386809598</v>
       </c>
       <c r="D21">
-        <v>1.024183229895629</v>
+        <v>1.047967580864273</v>
       </c>
       <c r="E21">
-        <v>1.007522906499183</v>
+        <v>1.036805222158511</v>
       </c>
       <c r="F21">
-        <v>1.026255084062029</v>
+        <v>1.056029150547686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050025970942808</v>
+        <v>1.045341990638374</v>
       </c>
       <c r="J21">
-        <v>1.029227043231239</v>
+        <v>1.044575268753482</v>
       </c>
       <c r="K21">
-        <v>1.038720484504106</v>
+        <v>1.0515037424581</v>
       </c>
       <c r="L21">
-        <v>1.022363143124184</v>
+        <v>1.040382366141418</v>
       </c>
       <c r="M21">
-        <v>1.040755552381782</v>
+        <v>1.059536308918259</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9963005420819663</v>
+        <v>1.037368975190797</v>
       </c>
       <c r="D22">
-        <v>1.021504444460411</v>
+        <v>1.047451396879706</v>
       </c>
       <c r="E22">
-        <v>1.004837644739859</v>
+        <v>1.036268350269637</v>
       </c>
       <c r="F22">
-        <v>1.023185867690661</v>
+        <v>1.055421701783376</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048702443978817</v>
+        <v>1.045142513176553</v>
       </c>
       <c r="J22">
-        <v>1.027203971138117</v>
+        <v>1.044188362610633</v>
       </c>
       <c r="K22">
-        <v>1.036661601433198</v>
+        <v>1.051116794913298</v>
       </c>
       <c r="L22">
-        <v>1.020313872272327</v>
+        <v>1.039976432309079</v>
       </c>
       <c r="M22">
-        <v>1.038311588589075</v>
+        <v>1.059057289495434</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9981192779673383</v>
+        <v>1.037705486380272</v>
       </c>
       <c r="D23">
-        <v>1.022929827917592</v>
+        <v>1.047724987509291</v>
       </c>
       <c r="E23">
-        <v>1.006266151801171</v>
+        <v>1.036552868320496</v>
       </c>
       <c r="F23">
-        <v>1.024818876227396</v>
+        <v>1.055743639471677</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049407761311651</v>
+        <v>1.045248360199719</v>
       </c>
       <c r="J23">
-        <v>1.028280950671843</v>
+        <v>1.044393477299316</v>
       </c>
       <c r="K23">
-        <v>1.03775770571443</v>
+        <v>1.051321943710737</v>
       </c>
       <c r="L23">
-        <v>1.021404529281394</v>
+        <v>1.040191605670056</v>
       </c>
       <c r="M23">
-        <v>1.039612383695746</v>
+        <v>1.059311210240929</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005120666943689</v>
+        <v>1.039031568521126</v>
       </c>
       <c r="D24">
-        <v>1.028426297793557</v>
+        <v>1.048803149643752</v>
       </c>
       <c r="E24">
-        <v>1.011781726681897</v>
+        <v>1.037674929358194</v>
       </c>
       <c r="F24">
-        <v>1.03111876039148</v>
+        <v>1.057012895782918</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052104167771543</v>
+        <v>1.04566284287102</v>
       </c>
       <c r="J24">
-        <v>1.032423015965588</v>
+        <v>1.045200801539846</v>
       </c>
       <c r="K24">
-        <v>1.041971951655213</v>
+        <v>1.052129132158154</v>
       </c>
       <c r="L24">
-        <v>1.025605053503938</v>
+        <v>1.041039156237118</v>
       </c>
       <c r="M24">
-        <v>1.044620579099613</v>
+        <v>1.060311230793398</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012940048748256</v>
+        <v>1.040572993677316</v>
       </c>
       <c r="D25">
-        <v>1.034581752626384</v>
+        <v>1.050056436651793</v>
       </c>
       <c r="E25">
-        <v>1.017973104570065</v>
+        <v>1.038980977741183</v>
       </c>
       <c r="F25">
-        <v>1.038180169295794</v>
+        <v>1.05848950014274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055075639117822</v>
+        <v>1.046139187070061</v>
       </c>
       <c r="J25">
-        <v>1.037039640577704</v>
+        <v>1.046137214785242</v>
       </c>
       <c r="K25">
-        <v>1.046665943583743</v>
+        <v>1.053064825876424</v>
       </c>
       <c r="L25">
-        <v>1.030298674063004</v>
+        <v>1.042023543558614</v>
       </c>
       <c r="M25">
-        <v>1.050213350060715</v>
+        <v>1.061472389461825</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041804464500799</v>
+        <v>1.018951995817235</v>
       </c>
       <c r="D2">
-        <v>1.051057722846995</v>
+        <v>1.039325812583286</v>
       </c>
       <c r="E2">
-        <v>1.0400258124473</v>
+        <v>1.022756595302072</v>
       </c>
       <c r="F2">
-        <v>1.059670161041093</v>
+        <v>1.043627935217139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046515349916376</v>
+        <v>1.057326724989831</v>
       </c>
       <c r="J2">
-        <v>1.046883698422676</v>
+        <v>1.040580263693331</v>
       </c>
       <c r="K2">
-        <v>1.053810279920723</v>
+        <v>1.050263170891195</v>
       </c>
       <c r="L2">
-        <v>1.0428093309011</v>
+        <v>1.033907743140564</v>
       </c>
       <c r="M2">
-        <v>1.062399032429219</v>
+        <v>1.054511168346385</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042699779461084</v>
+        <v>1.023196566081198</v>
       </c>
       <c r="D3">
-        <v>1.051785684973363</v>
+        <v>1.04268090262575</v>
       </c>
       <c r="E3">
-        <v>1.040786244702253</v>
+        <v>1.026146429202696</v>
       </c>
       <c r="F3">
-        <v>1.060529093033269</v>
+        <v>1.047484111177963</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046786279295741</v>
+        <v>1.058895900232825</v>
       </c>
       <c r="J3">
-        <v>1.047425461809877</v>
+        <v>1.043074241295861</v>
       </c>
       <c r="K3">
-        <v>1.05435103014468</v>
+        <v>1.05279531471373</v>
       </c>
       <c r="L3">
-        <v>1.043380233574392</v>
+        <v>1.036455344425028</v>
       </c>
       <c r="M3">
-        <v>1.06307212643042</v>
+        <v>1.057543441099188</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043279636703859</v>
+        <v>1.025890234499149</v>
       </c>
       <c r="D4">
-        <v>1.05225715070812</v>
+        <v>1.044812431441097</v>
       </c>
       <c r="E4">
-        <v>1.041279114036584</v>
+        <v>1.028303227647342</v>
       </c>
       <c r="F4">
-        <v>1.061085641440233</v>
+        <v>1.049935642538986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046960567263924</v>
+        <v>1.059882161962273</v>
       </c>
       <c r="J4">
-        <v>1.047775896780013</v>
+        <v>1.044654076893721</v>
       </c>
       <c r="K4">
-        <v>1.054700686201351</v>
+        <v>1.054398497718216</v>
       </c>
       <c r="L4">
-        <v>1.043749801297007</v>
+        <v>1.038071649123588</v>
       </c>
       <c r="M4">
-        <v>1.063507779662342</v>
+        <v>1.059466548225948</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043523533902915</v>
+        <v>1.027010415860604</v>
       </c>
       <c r="D5">
-        <v>1.052455455200363</v>
+        <v>1.045699362769167</v>
       </c>
       <c r="E5">
-        <v>1.041486510733213</v>
+        <v>1.029201444192568</v>
       </c>
       <c r="F5">
-        <v>1.061319795130717</v>
+        <v>1.05095613614031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047033592648053</v>
+        <v>1.060289976962631</v>
       </c>
       <c r="J5">
-        <v>1.04792318925728</v>
+        <v>1.045310342217017</v>
       </c>
       <c r="K5">
-        <v>1.0548476216312</v>
+        <v>1.05506425664788</v>
       </c>
       <c r="L5">
-        <v>1.043905203574987</v>
+        <v>1.038743663765642</v>
       </c>
       <c r="M5">
-        <v>1.063690954743024</v>
+        <v>1.0602659571142</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0435644926198</v>
+        <v>1.027197793410054</v>
       </c>
       <c r="D6">
-        <v>1.052488757232649</v>
+        <v>1.045847752961404</v>
       </c>
       <c r="E6">
-        <v>1.04152134490608</v>
+        <v>1.029351767878937</v>
       </c>
       <c r="F6">
-        <v>1.061359121115607</v>
+        <v>1.051126896653752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047045839526733</v>
+        <v>1.060358056018615</v>
       </c>
       <c r="J6">
-        <v>1.047947918497557</v>
+        <v>1.0454200753293</v>
       </c>
       <c r="K6">
-        <v>1.054872289184393</v>
+        <v>1.055175564952707</v>
       </c>
       <c r="L6">
-        <v>1.043931298377179</v>
+        <v>1.038856065577917</v>
       </c>
       <c r="M6">
-        <v>1.063721712155978</v>
+        <v>1.060399657290023</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043282895179825</v>
+        <v>1.025905249962014</v>
       </c>
       <c r="D7">
-        <v>1.052259800070339</v>
+        <v>1.044824318306301</v>
       </c>
       <c r="E7">
-        <v>1.041281884519431</v>
+        <v>1.028315262712695</v>
       </c>
       <c r="F7">
-        <v>1.061088769505224</v>
+        <v>1.049949317808266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046961543997376</v>
+        <v>1.059887637759344</v>
       </c>
       <c r="J7">
-        <v>1.047777865030116</v>
+        <v>1.044662876682055</v>
       </c>
       <c r="K7">
-        <v>1.054702649796931</v>
+        <v>1.054407425622729</v>
       </c>
       <c r="L7">
-        <v>1.043751877649902</v>
+        <v>1.038080657721788</v>
       </c>
       <c r="M7">
-        <v>1.063510227154519</v>
+        <v>1.059477265243409</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042106930131979</v>
+        <v>1.020397668376149</v>
       </c>
       <c r="D8">
-        <v>1.051303651989023</v>
+        <v>1.040468018598054</v>
       </c>
       <c r="E8">
-        <v>1.040282633586254</v>
+        <v>1.023909962395381</v>
       </c>
       <c r="F8">
-        <v>1.059960282349027</v>
+        <v>1.044940390930815</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046607122823236</v>
+        <v>1.057863157302245</v>
       </c>
       <c r="J8">
-        <v>1.047066814507837</v>
+        <v>1.041430281186893</v>
       </c>
       <c r="K8">
-        <v>1.053993079098522</v>
+        <v>1.051126366842601</v>
       </c>
       <c r="L8">
-        <v>1.043002237195611</v>
+        <v>1.034775512403557</v>
       </c>
       <c r="M8">
-        <v>1.062626482750753</v>
+        <v>1.055544173148927</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040038836832393</v>
+        <v>1.010268117893467</v>
       </c>
       <c r="D9">
-        <v>1.049622126129068</v>
+        <v>1.032476460850996</v>
       </c>
       <c r="E9">
-        <v>1.038528167532488</v>
+        <v>1.015853684136784</v>
       </c>
       <c r="F9">
-        <v>1.057977653747417</v>
+        <v>1.035764192787362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045974796983972</v>
+        <v>1.054065455780694</v>
       </c>
       <c r="J9">
-        <v>1.045812967223023</v>
+        <v>1.035463421089202</v>
       </c>
       <c r="K9">
-        <v>1.052740897854564</v>
+        <v>1.045063722937323</v>
       </c>
       <c r="L9">
-        <v>1.041682520098875</v>
+        <v>1.028694678312907</v>
       </c>
       <c r="M9">
-        <v>1.061070165836893</v>
+        <v>1.048302496865895</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038662948291843</v>
+        <v>1.003200512943378</v>
       </c>
       <c r="D10">
-        <v>1.048503441270084</v>
+        <v>1.026917422884903</v>
       </c>
       <c r="E10">
-        <v>1.037362882314298</v>
+        <v>1.010266450816938</v>
       </c>
       <c r="F10">
-        <v>1.056659974472932</v>
+        <v>1.029388862431685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045548052396475</v>
+        <v>1.05136779193947</v>
       </c>
       <c r="J10">
-        <v>1.044976541133953</v>
+        <v>1.031287721739541</v>
       </c>
       <c r="K10">
-        <v>1.051904953384449</v>
+        <v>1.040817107361128</v>
       </c>
       <c r="L10">
-        <v>1.040803618527564</v>
+        <v>1.024452782827715</v>
       </c>
       <c r="M10">
-        <v>1.060033345802536</v>
+        <v>1.043247019673252</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038067863425091</v>
+        <v>1.000058536175367</v>
       </c>
       <c r="D11">
-        <v>1.048019611322685</v>
+        <v>1.024450780991224</v>
       </c>
       <c r="E11">
-        <v>1.036859354773078</v>
+        <v>1.007791248104386</v>
       </c>
       <c r="F11">
-        <v>1.056090391787378</v>
+        <v>1.02656168612462</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045362044470579</v>
+        <v>1.050157686008524</v>
       </c>
       <c r="J11">
-        <v>1.044614248293596</v>
+        <v>1.029428880177023</v>
       </c>
       <c r="K11">
-        <v>1.051542720730963</v>
+        <v>1.038925866816365</v>
       </c>
       <c r="L11">
-        <v>1.040423275478066</v>
+        <v>1.022567713592644</v>
       </c>
       <c r="M11">
-        <v>1.05958458061528</v>
+        <v>1.040999489773941</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037846926454083</v>
+        <v>0.9988785562533437</v>
       </c>
       <c r="D12">
-        <v>1.047839982251595</v>
+        <v>1.023525190980995</v>
       </c>
       <c r="E12">
-        <v>1.036672481379919</v>
+        <v>1.006863035776266</v>
       </c>
       <c r="F12">
-        <v>1.055878972495927</v>
+        <v>1.025501043843334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045292769557615</v>
+        <v>1.049701646704259</v>
       </c>
       <c r="J12">
-        <v>1.044479660468146</v>
+        <v>1.02873045354145</v>
       </c>
       <c r="K12">
-        <v>1.051408133040308</v>
+        <v>1.038215150183148</v>
       </c>
       <c r="L12">
-        <v>1.040282034474446</v>
+        <v>1.021859921525023</v>
       </c>
       <c r="M12">
-        <v>1.059417918388518</v>
+        <v>1.040155466031093</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037894313455375</v>
+        <v>0.9991322609173474</v>
       </c>
       <c r="D13">
-        <v>1.047878509338685</v>
+        <v>1.023724164261934</v>
       </c>
       <c r="E13">
-        <v>1.036712559129195</v>
+        <v>1.007062546162884</v>
       </c>
       <c r="F13">
-        <v>1.055924315878616</v>
+        <v>1.025729038786158</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045307637544308</v>
+        <v>1.049799769236039</v>
       </c>
       <c r="J13">
-        <v>1.044508530725691</v>
+        <v>1.02888063491494</v>
       </c>
       <c r="K13">
-        <v>1.051437004273414</v>
+        <v>1.0383679793899</v>
       </c>
       <c r="L13">
-        <v>1.040312329530453</v>
+        <v>1.022012094586789</v>
       </c>
       <c r="M13">
-        <v>1.05945366666068</v>
+        <v>1.040336934702236</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038049598576195</v>
+        <v>0.9999612658828984</v>
       </c>
       <c r="D14">
-        <v>1.048004761345471</v>
+        <v>1.024374465108827</v>
       </c>
       <c r="E14">
-        <v>1.03684390450409</v>
+        <v>1.007714704029167</v>
       </c>
       <c r="F14">
-        <v>1.05607291275195</v>
+        <v>1.026474230332844</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045356321919549</v>
+        <v>1.050120124772084</v>
       </c>
       <c r="J14">
-        <v>1.044603123544608</v>
+        <v>1.029371312689087</v>
       </c>
       <c r="K14">
-        <v>1.051531596446035</v>
+        <v>1.038867288654862</v>
       </c>
       <c r="L14">
-        <v>1.040411599724693</v>
+        <v>1.02250936420538</v>
       </c>
       <c r="M14">
-        <v>1.059570803661023</v>
+        <v>1.040929912439678</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038145288689747</v>
+        <v>1.000470312619166</v>
       </c>
       <c r="D15">
-        <v>1.048082560937927</v>
+        <v>1.024773882265867</v>
       </c>
       <c r="E15">
-        <v>1.036924851862195</v>
+        <v>1.008115339533693</v>
       </c>
       <c r="F15">
-        <v>1.05616448799438</v>
+        <v>1.026931960355399</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045386293703876</v>
+        <v>1.050316630675401</v>
       </c>
       <c r="J15">
-        <v>1.044661403197912</v>
+        <v>1.029672568574002</v>
       </c>
       <c r="K15">
-        <v>1.051589872758619</v>
+        <v>1.039173828779449</v>
       </c>
       <c r="L15">
-        <v>1.040472768086929</v>
+        <v>1.022814731795582</v>
       </c>
       <c r="M15">
-        <v>1.059642979536586</v>
+        <v>1.041294035119976</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038702456634549</v>
+        <v>1.003407261332572</v>
       </c>
       <c r="D16">
-        <v>1.048535563571906</v>
+        <v>1.027079835716762</v>
       </c>
       <c r="E16">
-        <v>1.03739632200994</v>
+        <v>1.010429509454392</v>
       </c>
       <c r="F16">
-        <v>1.056697796614182</v>
+        <v>1.02957504774483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045560371387419</v>
+        <v>1.05144719748137</v>
       </c>
       <c r="J16">
-        <v>1.04500058299274</v>
+        <v>1.031409988808416</v>
       </c>
       <c r="K16">
-        <v>1.051928988128898</v>
+        <v>1.040941488878744</v>
       </c>
       <c r="L16">
-        <v>1.040828865532294</v>
+        <v>1.024576842756302</v>
       </c>
       <c r="M16">
-        <v>1.060063132880839</v>
+        <v>1.043394914760554</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039052137387636</v>
+        <v>1.0052272295434</v>
       </c>
       <c r="D17">
-        <v>1.048819873336705</v>
+        <v>1.028510067227039</v>
       </c>
       <c r="E17">
-        <v>1.037692344665592</v>
+        <v>1.011865878081404</v>
       </c>
       <c r="F17">
-        <v>1.057032590881072</v>
+        <v>1.03121481177212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045669238332236</v>
+        <v>1.052144961494993</v>
       </c>
       <c r="J17">
-        <v>1.04521331156393</v>
+        <v>1.032486004534596</v>
       </c>
       <c r="K17">
-        <v>1.052141636616666</v>
+        <v>1.042036019325985</v>
       </c>
       <c r="L17">
-        <v>1.04105229771943</v>
+        <v>1.025669005747212</v>
       </c>
       <c r="M17">
-        <v>1.060326734412798</v>
+        <v>1.044696806974607</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039256166159455</v>
+        <v>1.006280952964405</v>
       </c>
       <c r="D18">
-        <v>1.048985761108059</v>
+        <v>1.029338582130844</v>
       </c>
       <c r="E18">
-        <v>1.037865110743881</v>
+        <v>1.012698323958595</v>
       </c>
       <c r="F18">
-        <v>1.057227965265747</v>
+        <v>1.032164865883278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045732620365364</v>
+        <v>1.052547920221684</v>
       </c>
       <c r="J18">
-        <v>1.045337381386543</v>
+        <v>1.033108755604077</v>
       </c>
       <c r="K18">
-        <v>1.052265645409113</v>
+        <v>1.042669406577716</v>
       </c>
       <c r="L18">
-        <v>1.041182643767281</v>
+        <v>1.026301409479067</v>
       </c>
       <c r="M18">
-        <v>1.060480506456965</v>
+        <v>1.045450565412099</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0393257458375</v>
+        <v>1.006638935578695</v>
       </c>
       <c r="D19">
-        <v>1.04904233378038</v>
+        <v>1.029620127396083</v>
       </c>
       <c r="E19">
-        <v>1.037924036606467</v>
+        <v>1.012981268893529</v>
       </c>
       <c r="F19">
-        <v>1.057294598868912</v>
+        <v>1.032487740031368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045754211928012</v>
+        <v>1.052684641393719</v>
       </c>
       <c r="J19">
-        <v>1.045379684063928</v>
+        <v>1.033320281667817</v>
       </c>
       <c r="K19">
-        <v>1.052307924845998</v>
+        <v>1.042884531676578</v>
       </c>
       <c r="L19">
-        <v>1.041227092067468</v>
+        <v>1.026516266269366</v>
       </c>
       <c r="M19">
-        <v>1.060532941715256</v>
+        <v>1.045706637366561</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039014613126025</v>
+        <v>1.005032778913614</v>
       </c>
       <c r="D20">
-        <v>1.048789363920767</v>
+        <v>1.028357211025109</v>
       </c>
       <c r="E20">
-        <v>1.037660573770255</v>
+        <v>1.011712327022254</v>
       </c>
       <c r="F20">
-        <v>1.056996660832534</v>
+        <v>1.031039545296028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045657570161648</v>
+        <v>1.052070517102589</v>
       </c>
       <c r="J20">
-        <v>1.045190488947106</v>
+        <v>1.032371064472057</v>
       </c>
       <c r="K20">
-        <v>1.052118824072614</v>
+        <v>1.041919109693924</v>
       </c>
       <c r="L20">
-        <v>1.04102832329319</v>
+        <v>1.025552308932919</v>
       </c>
       <c r="M20">
-        <v>1.06029845061913</v>
+        <v>1.044557709720398</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03800386809598</v>
+        <v>0.9997175063232022</v>
       </c>
       <c r="D21">
-        <v>1.047967580864273</v>
+        <v>1.024183229895628</v>
       </c>
       <c r="E21">
-        <v>1.036805222158511</v>
+        <v>1.007522906499183</v>
       </c>
       <c r="F21">
-        <v>1.056029150547686</v>
+        <v>1.026255084062028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045341990638374</v>
+        <v>1.050025970942808</v>
       </c>
       <c r="J21">
-        <v>1.044575268753482</v>
+        <v>1.029227043231238</v>
       </c>
       <c r="K21">
-        <v>1.0515037424581</v>
+        <v>1.038720484504106</v>
       </c>
       <c r="L21">
-        <v>1.040382366141418</v>
+        <v>1.022363143124184</v>
       </c>
       <c r="M21">
-        <v>1.059536308918259</v>
+        <v>1.040755552381781</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037368975190797</v>
+        <v>0.9963005420819657</v>
       </c>
       <c r="D22">
-        <v>1.047451396879706</v>
+        <v>1.02150444446041</v>
       </c>
       <c r="E22">
-        <v>1.036268350269637</v>
+        <v>1.004837644739858</v>
       </c>
       <c r="F22">
-        <v>1.055421701783376</v>
+        <v>1.023185867690661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045142513176553</v>
+        <v>1.048702443978816</v>
       </c>
       <c r="J22">
-        <v>1.044188362610633</v>
+        <v>1.027203971138117</v>
       </c>
       <c r="K22">
-        <v>1.051116794913298</v>
+        <v>1.036661601433198</v>
       </c>
       <c r="L22">
-        <v>1.039976432309079</v>
+        <v>1.020313872272326</v>
       </c>
       <c r="M22">
-        <v>1.059057289495434</v>
+        <v>1.038311588589074</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037705486380272</v>
+        <v>0.9981192779673381</v>
       </c>
       <c r="D23">
-        <v>1.047724987509291</v>
+        <v>1.022929827917592</v>
       </c>
       <c r="E23">
-        <v>1.036552868320496</v>
+        <v>1.006266151801171</v>
       </c>
       <c r="F23">
-        <v>1.055743639471677</v>
+        <v>1.024818876227395</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045248360199719</v>
+        <v>1.04940776131165</v>
       </c>
       <c r="J23">
-        <v>1.044393477299316</v>
+        <v>1.028280950671843</v>
       </c>
       <c r="K23">
-        <v>1.051321943710737</v>
+        <v>1.03775770571443</v>
       </c>
       <c r="L23">
-        <v>1.040191605670056</v>
+        <v>1.021404529281394</v>
       </c>
       <c r="M23">
-        <v>1.059311210240929</v>
+        <v>1.039612383695745</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039031568521126</v>
+        <v>1.005120666943688</v>
       </c>
       <c r="D24">
-        <v>1.048803149643752</v>
+        <v>1.028426297793557</v>
       </c>
       <c r="E24">
-        <v>1.037674929358194</v>
+        <v>1.011781726681897</v>
       </c>
       <c r="F24">
-        <v>1.057012895782918</v>
+        <v>1.031118760391479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04566284287102</v>
+        <v>1.052104167771543</v>
       </c>
       <c r="J24">
-        <v>1.045200801539846</v>
+        <v>1.032423015965588</v>
       </c>
       <c r="K24">
-        <v>1.052129132158154</v>
+        <v>1.041971951655212</v>
       </c>
       <c r="L24">
-        <v>1.041039156237118</v>
+        <v>1.025605053503937</v>
       </c>
       <c r="M24">
-        <v>1.060311230793398</v>
+        <v>1.044620579099613</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040572993677316</v>
+        <v>1.012940048748256</v>
       </c>
       <c r="D25">
-        <v>1.050056436651793</v>
+        <v>1.034581752626383</v>
       </c>
       <c r="E25">
-        <v>1.038980977741183</v>
+        <v>1.017973104570064</v>
       </c>
       <c r="F25">
-        <v>1.05848950014274</v>
+        <v>1.038180169295792</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046139187070061</v>
+        <v>1.055075639117822</v>
       </c>
       <c r="J25">
-        <v>1.046137214785242</v>
+        <v>1.037039640577704</v>
       </c>
       <c r="K25">
-        <v>1.053064825876424</v>
+        <v>1.046665943583742</v>
       </c>
       <c r="L25">
-        <v>1.042023543558614</v>
+        <v>1.030298674063003</v>
       </c>
       <c r="M25">
-        <v>1.061472389461825</v>
+        <v>1.050213350060714</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018951995817235</v>
+        <v>1.020995962090197</v>
       </c>
       <c r="D2">
-        <v>1.039325812583286</v>
+        <v>1.038306323669099</v>
       </c>
       <c r="E2">
-        <v>1.022756595302072</v>
+        <v>1.033903383888042</v>
       </c>
       <c r="F2">
-        <v>1.043627935217139</v>
+        <v>1.043139263978666</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057326724989831</v>
+        <v>1.051786027644407</v>
       </c>
       <c r="J2">
-        <v>1.040580263693331</v>
+        <v>1.042566323144852</v>
       </c>
       <c r="K2">
-        <v>1.050263170891195</v>
+        <v>1.049256590272047</v>
       </c>
       <c r="L2">
-        <v>1.033907743140564</v>
+        <v>1.044909763883979</v>
       </c>
       <c r="M2">
-        <v>1.054511168346385</v>
+        <v>1.054028617077014</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051332336886602</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045898927522226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023196566081198</v>
+        <v>1.024376154780945</v>
       </c>
       <c r="D3">
-        <v>1.04268090262575</v>
+        <v>1.040560171748611</v>
       </c>
       <c r="E3">
-        <v>1.026146429202696</v>
+        <v>1.036504112202017</v>
       </c>
       <c r="F3">
-        <v>1.047484111177963</v>
+        <v>1.045631708114307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058895900232825</v>
+        <v>1.052529695126553</v>
       </c>
       <c r="J3">
-        <v>1.043074241295861</v>
+        <v>1.044223660710262</v>
       </c>
       <c r="K3">
-        <v>1.05279531471373</v>
+        <v>1.050699103894549</v>
       </c>
       <c r="L3">
-        <v>1.036455344425028</v>
+        <v>1.046690286539613</v>
       </c>
       <c r="M3">
-        <v>1.057543441099188</v>
+        <v>1.055712207008352</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052664764617809</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046916250462798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025890234499149</v>
+        <v>1.026529470261132</v>
       </c>
       <c r="D4">
-        <v>1.044812431441097</v>
+        <v>1.042000159451874</v>
       </c>
       <c r="E4">
-        <v>1.028303227647342</v>
+        <v>1.038166646244608</v>
       </c>
       <c r="F4">
-        <v>1.049935642538986</v>
+        <v>1.047225962086295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059882161962273</v>
+        <v>1.052996404232423</v>
       </c>
       <c r="J4">
-        <v>1.044654076893721</v>
+        <v>1.04527806186973</v>
       </c>
       <c r="K4">
-        <v>1.054398497718216</v>
+        <v>1.051616787889919</v>
       </c>
       <c r="L4">
-        <v>1.038071649123588</v>
+        <v>1.047825262724959</v>
       </c>
       <c r="M4">
-        <v>1.059466548225948</v>
+        <v>1.056785959944953</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053514553565217</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047566005130723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027010415860604</v>
+        <v>1.027429809618733</v>
       </c>
       <c r="D5">
-        <v>1.045699362769167</v>
+        <v>1.042605096710574</v>
       </c>
       <c r="E5">
-        <v>1.029201444192568</v>
+        <v>1.03886360471456</v>
       </c>
       <c r="F5">
-        <v>1.05095613614031</v>
+        <v>1.047894645803199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060289976962631</v>
+        <v>1.053191246229415</v>
       </c>
       <c r="J5">
-        <v>1.045310342217017</v>
+        <v>1.045720026926792</v>
       </c>
       <c r="K5">
-        <v>1.05506425664788</v>
+        <v>1.052002725563038</v>
       </c>
       <c r="L5">
-        <v>1.038743663765642</v>
+        <v>1.048301134696527</v>
       </c>
       <c r="M5">
-        <v>1.0602659571142</v>
+        <v>1.057236458549771</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053871086633809</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047845985376934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027197793410054</v>
+        <v>1.027584161118005</v>
       </c>
       <c r="D6">
-        <v>1.045847752961404</v>
+        <v>1.042711136508449</v>
       </c>
       <c r="E6">
-        <v>1.029351767878937</v>
+        <v>1.03898373197229</v>
       </c>
       <c r="F6">
-        <v>1.051126896653752</v>
+        <v>1.048010064666008</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060358056018615</v>
+        <v>1.053226274739765</v>
       </c>
       <c r="J6">
-        <v>1.0454200753293</v>
+        <v>1.045797544167767</v>
       </c>
       <c r="K6">
-        <v>1.055175564952707</v>
+        <v>1.052071980254862</v>
       </c>
       <c r="L6">
-        <v>1.038856065577917</v>
+        <v>1.048384146531407</v>
       </c>
       <c r="M6">
-        <v>1.060399657290023</v>
+        <v>1.057315245974939</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05393344046661</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04790360620559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025905249962014</v>
+        <v>1.026551323046663</v>
       </c>
       <c r="D7">
-        <v>1.044824318306301</v>
+        <v>1.042020925285916</v>
       </c>
       <c r="E7">
-        <v>1.028315262712695</v>
+        <v>1.038185075557949</v>
       </c>
       <c r="F7">
-        <v>1.049949317808266</v>
+        <v>1.047244037990826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059887637759344</v>
+        <v>1.053005778572836</v>
       </c>
       <c r="J7">
-        <v>1.044662876682055</v>
+        <v>1.045293542200292</v>
       </c>
       <c r="K7">
-        <v>1.054407425622729</v>
+        <v>1.051634486979615</v>
       </c>
       <c r="L7">
-        <v>1.038080657721788</v>
+        <v>1.047840634971056</v>
       </c>
       <c r="M7">
-        <v>1.059477265243409</v>
+        <v>1.056801019636122</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05352647209076</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047598421945245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020397668376149</v>
+        <v>1.022157736444672</v>
       </c>
       <c r="D8">
-        <v>1.040468018598054</v>
+        <v>1.039087622346936</v>
       </c>
       <c r="E8">
-        <v>1.023909962395381</v>
+        <v>1.03479799523436</v>
       </c>
       <c r="F8">
-        <v>1.044940390930815</v>
+        <v>1.043996875634963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057863157302245</v>
+        <v>1.05204881686416</v>
       </c>
       <c r="J8">
-        <v>1.041430281186893</v>
+        <v>1.043142148620754</v>
       </c>
       <c r="K8">
-        <v>1.051126366842601</v>
+        <v>1.049762930399849</v>
       </c>
       <c r="L8">
-        <v>1.034775512403557</v>
+        <v>1.045526366142014</v>
       </c>
       <c r="M8">
-        <v>1.055544173148927</v>
+        <v>1.054612121038754</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051794134201881</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046279622137812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010268117893467</v>
+        <v>1.014130355012361</v>
       </c>
       <c r="D9">
-        <v>1.032476460850996</v>
+        <v>1.033753136154684</v>
       </c>
       <c r="E9">
-        <v>1.015853684136784</v>
+        <v>1.02865388297589</v>
       </c>
       <c r="F9">
-        <v>1.035764192787362</v>
+        <v>1.038113550522983</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054065455780694</v>
+        <v>1.050238656497753</v>
       </c>
       <c r="J9">
-        <v>1.035463421089202</v>
+        <v>1.039193815095013</v>
       </c>
       <c r="K9">
-        <v>1.045063722937323</v>
+        <v>1.046321340082711</v>
       </c>
       <c r="L9">
-        <v>1.028694678312907</v>
+        <v>1.041298568599164</v>
       </c>
       <c r="M9">
-        <v>1.048302496865895</v>
+        <v>1.050617111347392</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048632393746749</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043843093824327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003200512943378</v>
+        <v>1.008639128352905</v>
       </c>
       <c r="D10">
-        <v>1.026917422884903</v>
+        <v>1.030148535296986</v>
       </c>
       <c r="E10">
-        <v>1.010266450816938</v>
+        <v>1.0245078964626</v>
       </c>
       <c r="F10">
-        <v>1.029388862431685</v>
+        <v>1.034181025737176</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05136779193947</v>
+        <v>1.048985355375047</v>
       </c>
       <c r="J10">
-        <v>1.031287721739541</v>
+        <v>1.036514127882392</v>
       </c>
       <c r="K10">
-        <v>1.040817107361128</v>
+        <v>1.043993979461428</v>
       </c>
       <c r="L10">
-        <v>1.024452782827715</v>
+        <v>1.038448316822248</v>
       </c>
       <c r="M10">
-        <v>1.043247019673252</v>
+        <v>1.047959388938552</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.046579942693225</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042214191281252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000058536175367</v>
+        <v>1.006654305711308</v>
       </c>
       <c r="D11">
-        <v>1.024450780991224</v>
+        <v>1.028999324843179</v>
       </c>
       <c r="E11">
-        <v>1.007791248104386</v>
+        <v>1.023205734210092</v>
       </c>
       <c r="F11">
-        <v>1.02656168612462</v>
+        <v>1.03320487805627</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050157686008524</v>
+        <v>1.048677911443883</v>
       </c>
       <c r="J11">
-        <v>1.029428880177023</v>
+        <v>1.035752854237217</v>
       </c>
       <c r="K11">
-        <v>1.038925866816365</v>
+        <v>1.043394322188045</v>
       </c>
       <c r="L11">
-        <v>1.022567713592644</v>
+        <v>1.037702903269921</v>
       </c>
       <c r="M11">
-        <v>1.040999489773941</v>
+        <v>1.047526637938099</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046669595269612</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041822760653594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9988785562533437</v>
+        <v>1.006072718357433</v>
       </c>
       <c r="D12">
-        <v>1.023525190980995</v>
+        <v>1.028725752164782</v>
       </c>
       <c r="E12">
-        <v>1.006863035776266</v>
+        <v>1.022909637145529</v>
       </c>
       <c r="F12">
-        <v>1.025501043843334</v>
+        <v>1.033113897020516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049701646704259</v>
+        <v>1.048653865035324</v>
       </c>
       <c r="J12">
-        <v>1.02873045354145</v>
+        <v>1.035622275073625</v>
       </c>
       <c r="K12">
-        <v>1.038215150183148</v>
+        <v>1.043322556400528</v>
       </c>
       <c r="L12">
-        <v>1.021859921525023</v>
+        <v>1.037610703953115</v>
       </c>
       <c r="M12">
-        <v>1.040155466031093</v>
+        <v>1.047633044363532</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047077364939717</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041772020786187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9991322609173474</v>
+        <v>1.006545273437265</v>
       </c>
       <c r="D13">
-        <v>1.023724164261934</v>
+        <v>1.029124002156232</v>
       </c>
       <c r="E13">
-        <v>1.007062546162884</v>
+        <v>1.023380723421169</v>
       </c>
       <c r="F13">
-        <v>1.025729038786158</v>
+        <v>1.033717784790213</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049799769236039</v>
+        <v>1.048859025276413</v>
       </c>
       <c r="J13">
-        <v>1.02888063491494</v>
+        <v>1.035983567713394</v>
       </c>
       <c r="K13">
-        <v>1.0383679793899</v>
+        <v>1.043671488127007</v>
       </c>
       <c r="L13">
-        <v>1.022012094586789</v>
+        <v>1.03803070996162</v>
       </c>
       <c r="M13">
-        <v>1.040336934702236</v>
+        <v>1.048184347455586</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047787837906481</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042016253065577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9999612658828984</v>
+        <v>1.00735512565614</v>
       </c>
       <c r="D14">
-        <v>1.024374465108827</v>
+        <v>1.029709094407357</v>
       </c>
       <c r="E14">
-        <v>1.007714704029167</v>
+        <v>1.024059007417992</v>
       </c>
       <c r="F14">
-        <v>1.026474230332844</v>
+        <v>1.034456507474171</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050120124772084</v>
+        <v>1.049107116874243</v>
       </c>
       <c r="J14">
-        <v>1.029371312689087</v>
+        <v>1.036460313631366</v>
       </c>
       <c r="K14">
-        <v>1.038867288654862</v>
+        <v>1.044107941028073</v>
       </c>
       <c r="L14">
-        <v>1.02250936420538</v>
+        <v>1.038557427974353</v>
       </c>
       <c r="M14">
-        <v>1.040929912439678</v>
+        <v>1.048772776257224</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.048425147369606</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042326245550134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000470312619166</v>
+        <v>1.007786545353696</v>
       </c>
       <c r="D15">
-        <v>1.024773882265867</v>
+        <v>1.030004934272375</v>
       </c>
       <c r="E15">
-        <v>1.008115339533693</v>
+        <v>1.024398425103423</v>
       </c>
       <c r="F15">
-        <v>1.026931960355399</v>
+        <v>1.034799648027478</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050316630675401</v>
+        <v>1.04922142287884</v>
       </c>
       <c r="J15">
-        <v>1.029672568574002</v>
+        <v>1.036689793005809</v>
       </c>
       <c r="K15">
-        <v>1.039173828779449</v>
+        <v>1.04431343641271</v>
       </c>
       <c r="L15">
-        <v>1.022814731795582</v>
+        <v>1.038804981576633</v>
       </c>
       <c r="M15">
-        <v>1.041294035119976</v>
+        <v>1.049025383065543</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048662115954303</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04247735058941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003407261332572</v>
+        <v>1.010018949059453</v>
       </c>
       <c r="D16">
-        <v>1.027079835716762</v>
+        <v>1.031457371924699</v>
       </c>
       <c r="E16">
-        <v>1.010429509454392</v>
+        <v>1.02606474937906</v>
       </c>
       <c r="F16">
-        <v>1.02957504774483</v>
+        <v>1.036370295728106</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05144719748137</v>
+        <v>1.04972664516195</v>
       </c>
       <c r="J16">
-        <v>1.031409988808416</v>
+        <v>1.037765090380453</v>
       </c>
       <c r="K16">
-        <v>1.040941488878744</v>
+        <v>1.045245888817802</v>
       </c>
       <c r="L16">
-        <v>1.024576842756302</v>
+        <v>1.039943476721518</v>
       </c>
       <c r="M16">
-        <v>1.043394914760554</v>
+        <v>1.050077677770277</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049455377576091</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04313975369276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0052272295434</v>
+        <v>1.011309092550142</v>
       </c>
       <c r="D17">
-        <v>1.028510067227039</v>
+        <v>1.032266501701888</v>
       </c>
       <c r="E17">
-        <v>1.011865878081404</v>
+        <v>1.026989077241848</v>
       </c>
       <c r="F17">
-        <v>1.03121481177212</v>
+        <v>1.037185506525636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052144961494993</v>
+        <v>1.04998218116987</v>
       </c>
       <c r="J17">
-        <v>1.032486004534596</v>
+        <v>1.038339510247247</v>
       </c>
       <c r="K17">
-        <v>1.042036019325985</v>
+        <v>1.045731484913887</v>
       </c>
       <c r="L17">
-        <v>1.025669005747212</v>
+        <v>1.04053987887332</v>
       </c>
       <c r="M17">
-        <v>1.044696806974607</v>
+        <v>1.050571507740201</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.049717542229783</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04348564664185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006280952964405</v>
+        <v>1.011897584458925</v>
       </c>
       <c r="D18">
-        <v>1.029338582130844</v>
+        <v>1.032577250862738</v>
       </c>
       <c r="E18">
-        <v>1.012698323958595</v>
+        <v>1.027339037126265</v>
       </c>
       <c r="F18">
-        <v>1.032164865883278</v>
+        <v>1.037389609325778</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052547920221684</v>
+        <v>1.050036603227425</v>
       </c>
       <c r="J18">
-        <v>1.033108755604077</v>
+        <v>1.038518529883355</v>
       </c>
       <c r="K18">
-        <v>1.042669406577716</v>
+        <v>1.045856392642473</v>
       </c>
       <c r="L18">
-        <v>1.026301409479067</v>
+        <v>1.040701979056604</v>
       </c>
       <c r="M18">
-        <v>1.045450565412099</v>
+        <v>1.050592718080414</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P18">
+        <v>1.049498424346242</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043562434579532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006638935578695</v>
+        <v>1.011866404027874</v>
       </c>
       <c r="D19">
-        <v>1.029620127396083</v>
+        <v>1.032456652578067</v>
       </c>
       <c r="E19">
-        <v>1.012981268893529</v>
+        <v>1.027181713837936</v>
       </c>
       <c r="F19">
-        <v>1.032487740031368</v>
+        <v>1.037051991371752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052684641393719</v>
+        <v>1.049922272460852</v>
       </c>
       <c r="J19">
-        <v>1.033320281667817</v>
+        <v>1.038356436040102</v>
       </c>
       <c r="K19">
-        <v>1.042884531676578</v>
+        <v>1.045676041513297</v>
       </c>
       <c r="L19">
-        <v>1.026516266269366</v>
+        <v>1.040485070305093</v>
       </c>
       <c r="M19">
-        <v>1.045706637366561</v>
+        <v>1.050199121129423</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04886451274491</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043441257085462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005032778913614</v>
+        <v>1.010086518483398</v>
       </c>
       <c r="D20">
-        <v>1.028357211025109</v>
+        <v>1.031112761181409</v>
       </c>
       <c r="E20">
-        <v>1.011712327022254</v>
+        <v>1.025603709390367</v>
       </c>
       <c r="F20">
-        <v>1.031039545296028</v>
+        <v>1.035222567575298</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052070517102589</v>
+        <v>1.049330557671209</v>
       </c>
       <c r="J20">
-        <v>1.032371064472057</v>
+        <v>1.037234083455994</v>
       </c>
       <c r="K20">
-        <v>1.041919109693924</v>
+        <v>1.044629735951518</v>
       </c>
       <c r="L20">
-        <v>1.025552308932919</v>
+        <v>1.039210808754481</v>
       </c>
       <c r="M20">
-        <v>1.044557709720398</v>
+        <v>1.048673110002467</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047134325142013</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042705376132882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9997175063232022</v>
+        <v>1.005889562381144</v>
       </c>
       <c r="D21">
-        <v>1.024183229895628</v>
+        <v>1.028336388373722</v>
       </c>
       <c r="E21">
-        <v>1.007522906499183</v>
+        <v>1.022410223556395</v>
       </c>
       <c r="F21">
-        <v>1.026255084062028</v>
+        <v>1.032144794060232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050025970942808</v>
+        <v>1.048330218364486</v>
       </c>
       <c r="J21">
-        <v>1.029227043231238</v>
+        <v>1.035143090665899</v>
       </c>
       <c r="K21">
-        <v>1.038720484504106</v>
+        <v>1.042800096100108</v>
       </c>
       <c r="L21">
-        <v>1.022363143124184</v>
+        <v>1.036979112073703</v>
       </c>
       <c r="M21">
-        <v>1.040755552381781</v>
+        <v>1.046541733694256</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045407034404418</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041414970534437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9963005420819657</v>
+        <v>1.003221242781705</v>
       </c>
       <c r="D22">
-        <v>1.02150444446041</v>
+        <v>1.026580015724772</v>
       </c>
       <c r="E22">
-        <v>1.004837644739858</v>
+        <v>1.020397409657609</v>
       </c>
       <c r="F22">
-        <v>1.023185867690661</v>
+        <v>1.030222000542073</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048702443978816</v>
+        <v>1.047691938848503</v>
       </c>
       <c r="J22">
-        <v>1.027203971138117</v>
+        <v>1.033820700336838</v>
       </c>
       <c r="K22">
-        <v>1.036661601433198</v>
+        <v>1.041642688267938</v>
       </c>
       <c r="L22">
-        <v>1.020313872272326</v>
+        <v>1.035575337744374</v>
       </c>
       <c r="M22">
-        <v>1.038311588589074</v>
+        <v>1.045217622719944</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.044359095668895</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040583257930827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9981192779673381</v>
+        <v>1.004630874537749</v>
       </c>
       <c r="D23">
-        <v>1.022929827917592</v>
+        <v>1.02750189058151</v>
       </c>
       <c r="E23">
-        <v>1.006266151801171</v>
+        <v>1.021458394234529</v>
       </c>
       <c r="F23">
-        <v>1.024818876227395</v>
+        <v>1.03123521074249</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04940776131165</v>
+        <v>1.048025689016922</v>
       </c>
       <c r="J23">
-        <v>1.028280950671843</v>
+        <v>1.034515034323964</v>
       </c>
       <c r="K23">
-        <v>1.03775770571443</v>
+        <v>1.042246864237171</v>
       </c>
       <c r="L23">
-        <v>1.021404529281394</v>
+        <v>1.036313158750853</v>
       </c>
       <c r="M23">
-        <v>1.039612383695745</v>
+        <v>1.045913196895455</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044909592858049</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041000877996419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005120666943688</v>
+        <v>1.010099124102774</v>
       </c>
       <c r="D24">
-        <v>1.028426297793557</v>
+        <v>1.031098733920306</v>
       </c>
       <c r="E24">
-        <v>1.011781726681897</v>
+        <v>1.025592509325655</v>
       </c>
       <c r="F24">
-        <v>1.031118760391479</v>
+        <v>1.035185914859586</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052104167771543</v>
+        <v>1.049312787727989</v>
       </c>
       <c r="J24">
-        <v>1.032423015965588</v>
+        <v>1.037213883337069</v>
       </c>
       <c r="K24">
-        <v>1.041971951655212</v>
+        <v>1.044600877587988</v>
       </c>
       <c r="L24">
-        <v>1.025605053503937</v>
+        <v>1.039184618976699</v>
       </c>
       <c r="M24">
-        <v>1.044620579099613</v>
+        <v>1.048622072132153</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047053469842751</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042657816069047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012940048748256</v>
+        <v>1.016254813169309</v>
       </c>
       <c r="D25">
-        <v>1.034581752626383</v>
+        <v>1.035170108940253</v>
       </c>
       <c r="E25">
-        <v>1.017973104570064</v>
+        <v>1.030276826144344</v>
       </c>
       <c r="F25">
-        <v>1.038180169295792</v>
+        <v>1.039667181604548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055075639117822</v>
+        <v>1.050731109669819</v>
       </c>
       <c r="J25">
-        <v>1.037039640577704</v>
+        <v>1.04024725337897</v>
       </c>
       <c r="K25">
-        <v>1.046665943583742</v>
+        <v>1.047245928840261</v>
       </c>
       <c r="L25">
-        <v>1.030298674063003</v>
+        <v>1.042422635479989</v>
       </c>
       <c r="M25">
-        <v>1.050213350060714</v>
+        <v>1.051679413144392</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049473124571423</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044525134831608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020995962090197</v>
+        <v>1.019732565117411</v>
       </c>
       <c r="D2">
-        <v>1.038306323669099</v>
+        <v>1.036453137290141</v>
       </c>
       <c r="E2">
-        <v>1.033903383888042</v>
+        <v>1.032767959289186</v>
       </c>
       <c r="F2">
-        <v>1.043139263978666</v>
+        <v>1.041876420498462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051786027644407</v>
+        <v>1.050933485623278</v>
       </c>
       <c r="J2">
-        <v>1.042566323144852</v>
+        <v>1.041338681516892</v>
       </c>
       <c r="K2">
-        <v>1.049256590272047</v>
+        <v>1.047426949306248</v>
       </c>
       <c r="L2">
-        <v>1.044909763883979</v>
+        <v>1.043788906755291</v>
       </c>
       <c r="M2">
-        <v>1.054028617077014</v>
+        <v>1.052781622221992</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051332336886602</v>
+        <v>1.050345437960729</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045898927522226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044613928624211</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024575935104513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024376154780945</v>
+        <v>1.023021342543509</v>
       </c>
       <c r="D3">
-        <v>1.040560171748611</v>
+        <v>1.038575372687076</v>
       </c>
       <c r="E3">
-        <v>1.036504112202017</v>
+        <v>1.035283547882466</v>
       </c>
       <c r="F3">
-        <v>1.045631708114307</v>
+        <v>1.044278319487744</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052529695126553</v>
+        <v>1.051611702647911</v>
       </c>
       <c r="J3">
-        <v>1.044223660710262</v>
+        <v>1.042903507321424</v>
       </c>
       <c r="K3">
-        <v>1.050699103894549</v>
+        <v>1.048737365398898</v>
       </c>
       <c r="L3">
-        <v>1.046690286539613</v>
+        <v>1.045484028179887</v>
       </c>
       <c r="M3">
-        <v>1.055712207008352</v>
+        <v>1.054374343311642</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052664764617809</v>
+        <v>1.051605951938847</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046916250462798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045537575069317</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024831498471224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026529470261132</v>
+        <v>1.025116960791225</v>
       </c>
       <c r="D4">
-        <v>1.042000159451874</v>
+        <v>1.039931870014804</v>
       </c>
       <c r="E4">
-        <v>1.038166646244608</v>
+        <v>1.036892290350714</v>
       </c>
       <c r="F4">
-        <v>1.047225962086295</v>
+        <v>1.045815258264992</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052996404232423</v>
+        <v>1.05203688588096</v>
       </c>
       <c r="J4">
-        <v>1.04527806186973</v>
+        <v>1.043899285949766</v>
       </c>
       <c r="K4">
-        <v>1.051616787889919</v>
+        <v>1.04957110497239</v>
       </c>
       <c r="L4">
-        <v>1.047825262724959</v>
+        <v>1.046564949209942</v>
       </c>
       <c r="M4">
-        <v>1.056785959944953</v>
+        <v>1.055390475146673</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053514553565217</v>
+        <v>1.052410139581585</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047566005130723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046128058784243</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024991874493947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027429809618733</v>
+        <v>1.025993331585143</v>
       </c>
       <c r="D5">
-        <v>1.042605096710574</v>
+        <v>1.04050205399358</v>
       </c>
       <c r="E5">
-        <v>1.03886360471456</v>
+        <v>1.03756689020462</v>
       </c>
       <c r="F5">
-        <v>1.047894645803199</v>
+        <v>1.046460101688844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053191246229415</v>
+        <v>1.052214428620143</v>
       </c>
       <c r="J5">
-        <v>1.045720026926792</v>
+        <v>1.044316847746623</v>
       </c>
       <c r="K5">
-        <v>1.052002725563038</v>
+        <v>1.049922067494825</v>
       </c>
       <c r="L5">
-        <v>1.048301134696527</v>
+        <v>1.047018331272273</v>
       </c>
       <c r="M5">
-        <v>1.057236458549771</v>
+        <v>1.055816983779257</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053871086633809</v>
+        <v>1.052747687033292</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047845985376934</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046384020764445</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025059312130092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027584161118005</v>
+        <v>1.026143619725838</v>
       </c>
       <c r="D6">
-        <v>1.042711136508449</v>
+        <v>1.040602228894491</v>
       </c>
       <c r="E6">
-        <v>1.03898373197229</v>
+        <v>1.037683224422621</v>
       </c>
       <c r="F6">
-        <v>1.048010064666008</v>
+        <v>1.046571485503814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053226274739765</v>
+        <v>1.052246521748676</v>
       </c>
       <c r="J6">
-        <v>1.045797544167767</v>
+        <v>1.044390227079935</v>
       </c>
       <c r="K6">
-        <v>1.052071980254862</v>
+        <v>1.049985418575779</v>
       </c>
       <c r="L6">
-        <v>1.048384146531407</v>
+        <v>1.047097527335458</v>
       </c>
       <c r="M6">
-        <v>1.057315245974939</v>
+        <v>1.055891710211922</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05393344046661</v>
+        <v>1.052806827009255</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04790360620559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046438336189483</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025072021596636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026551323046663</v>
+        <v>1.025138326771124</v>
       </c>
       <c r="D7">
-        <v>1.042020925285916</v>
+        <v>1.039952022260056</v>
       </c>
       <c r="E7">
-        <v>1.038185075557949</v>
+        <v>1.036910259816579</v>
       </c>
       <c r="F7">
-        <v>1.047244037990826</v>
+        <v>1.045832874950534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053005778572836</v>
+        <v>1.05204590950756</v>
       </c>
       <c r="J7">
-        <v>1.045293542200292</v>
+        <v>1.043914276930844</v>
       </c>
       <c r="K7">
-        <v>1.051634486979615</v>
+        <v>1.049588188570914</v>
       </c>
       <c r="L7">
-        <v>1.047840634971056</v>
+        <v>1.046579861395852</v>
       </c>
       <c r="M7">
-        <v>1.056801019636122</v>
+        <v>1.055405074882665</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05352647209076</v>
+        <v>1.052421694106794</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047598421945245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046162039376651</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024996691152108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022157736444672</v>
+        <v>1.020862886962901</v>
       </c>
       <c r="D8">
-        <v>1.039087622346936</v>
+        <v>1.037189380119339</v>
       </c>
       <c r="E8">
-        <v>1.03479799523436</v>
+        <v>1.033633281809722</v>
       </c>
       <c r="F8">
-        <v>1.043996875634963</v>
+        <v>1.042702952336691</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05204881686416</v>
+        <v>1.051173803781474</v>
       </c>
       <c r="J8">
-        <v>1.043142148620754</v>
+        <v>1.041882737434128</v>
       </c>
       <c r="K8">
-        <v>1.049762930399849</v>
+        <v>1.047888102104919</v>
       </c>
       <c r="L8">
-        <v>1.045526366142014</v>
+        <v>1.044376154996623</v>
       </c>
       <c r="M8">
-        <v>1.054612121038754</v>
+        <v>1.053333960117533</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051794134201881</v>
+        <v>1.050782570378543</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046279622137812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044964941509262</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024668221420211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014130355012361</v>
+        <v>1.013055832269428</v>
       </c>
       <c r="D9">
-        <v>1.033753136154684</v>
+        <v>1.032169308891847</v>
       </c>
       <c r="E9">
-        <v>1.02865388297589</v>
+        <v>1.027693945283891</v>
       </c>
       <c r="F9">
-        <v>1.038113550522983</v>
+        <v>1.037036739571923</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050238656497753</v>
+        <v>1.049519985081137</v>
       </c>
       <c r="J9">
-        <v>1.039193815095013</v>
+        <v>1.038155832030119</v>
       </c>
       <c r="K9">
-        <v>1.046321340082711</v>
+        <v>1.044761165082064</v>
       </c>
       <c r="L9">
-        <v>1.041298568599164</v>
+        <v>1.040353136772414</v>
       </c>
       <c r="M9">
-        <v>1.050617111347392</v>
+        <v>1.049556199885041</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048632393746749</v>
+        <v>1.047792762315629</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043843093824327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042750605100702</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024044224738833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008639128352905</v>
+        <v>1.007715953061928</v>
       </c>
       <c r="D10">
-        <v>1.030148535296986</v>
+        <v>1.028778900260993</v>
       </c>
       <c r="E10">
-        <v>1.0245078964626</v>
+        <v>1.023688003493338</v>
       </c>
       <c r="F10">
-        <v>1.034181025737176</v>
+        <v>1.033252623643438</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048985355375047</v>
+        <v>1.04837267263805</v>
       </c>
       <c r="J10">
-        <v>1.036514127882392</v>
+        <v>1.035626745949299</v>
       </c>
       <c r="K10">
-        <v>1.043993979461428</v>
+        <v>1.042647282699884</v>
       </c>
       <c r="L10">
-        <v>1.038448316822248</v>
+        <v>1.037642341564477</v>
       </c>
       <c r="M10">
-        <v>1.047959388938552</v>
+        <v>1.047046371188731</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.046579942693225</v>
+        <v>1.045857400245739</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042214191281252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041274320154837</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023616593849449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006654305711308</v>
+        <v>1.005762462050832</v>
       </c>
       <c r="D11">
-        <v>1.028999324843179</v>
+        <v>1.027681986941992</v>
       </c>
       <c r="E11">
-        <v>1.023205734210092</v>
+        <v>1.022413957076964</v>
       </c>
       <c r="F11">
-        <v>1.03320487805627</v>
+        <v>1.032310564966209</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048677911443883</v>
+        <v>1.048087502187492</v>
       </c>
       <c r="J11">
-        <v>1.035752854237217</v>
+        <v>1.034897465342581</v>
       </c>
       <c r="K11">
-        <v>1.043394322188045</v>
+        <v>1.042100084798058</v>
       </c>
       <c r="L11">
-        <v>1.037702903269921</v>
+        <v>1.03692520609945</v>
       </c>
       <c r="M11">
-        <v>1.047526637938099</v>
+        <v>1.046647834178628</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046669595269612</v>
+        <v>1.045974472447493</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041822760653594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040923200185877</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023546082430297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006072718357433</v>
+        <v>1.00517814169073</v>
       </c>
       <c r="D12">
-        <v>1.028725752164782</v>
+        <v>1.02741114169804</v>
       </c>
       <c r="E12">
-        <v>1.022909637145529</v>
+        <v>1.022114665977548</v>
       </c>
       <c r="F12">
-        <v>1.033113897020516</v>
+        <v>1.032219686099986</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048653865035324</v>
+        <v>1.048061931873315</v>
       </c>
       <c r="J12">
-        <v>1.035622275073625</v>
+        <v>1.034764958600558</v>
       </c>
       <c r="K12">
-        <v>1.043322556400528</v>
+        <v>1.042031378229987</v>
       </c>
       <c r="L12">
-        <v>1.037610703953115</v>
+        <v>1.03683010370128</v>
       </c>
       <c r="M12">
-        <v>1.047633044363532</v>
+        <v>1.04675458881933</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047077364939717</v>
+        <v>1.04638274888218</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041772020786187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040874624140915</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023562566017892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006545273437265</v>
+        <v>1.005621162887705</v>
       </c>
       <c r="D13">
-        <v>1.029124002156232</v>
+        <v>1.027773655970809</v>
       </c>
       <c r="E13">
-        <v>1.023380723421169</v>
+        <v>1.022557950469022</v>
       </c>
       <c r="F13">
-        <v>1.033717784790213</v>
+        <v>1.032797203468945</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048859025276413</v>
+        <v>1.048246919322555</v>
       </c>
       <c r="J13">
-        <v>1.035983567713394</v>
+        <v>1.03509775728798</v>
       </c>
       <c r="K13">
-        <v>1.043671488127007</v>
+        <v>1.042345107954311</v>
       </c>
       <c r="L13">
-        <v>1.03803070996162</v>
+        <v>1.037222743629667</v>
       </c>
       <c r="M13">
-        <v>1.048184347455586</v>
+        <v>1.047279908198884</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047787837906481</v>
+        <v>1.047072853114632</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042016253065577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041093720791035</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023653872189552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00735512565614</v>
+        <v>1.006398422465487</v>
       </c>
       <c r="D14">
-        <v>1.029709094407357</v>
+        <v>1.028316470265237</v>
       </c>
       <c r="E14">
-        <v>1.024059007417992</v>
+        <v>1.02320584010273</v>
       </c>
       <c r="F14">
-        <v>1.034456507474171</v>
+        <v>1.033505641477586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049107116874243</v>
+        <v>1.048472556902231</v>
       </c>
       <c r="J14">
-        <v>1.036460313631366</v>
+        <v>1.035542698399595</v>
       </c>
       <c r="K14">
-        <v>1.044107941028073</v>
+        <v>1.042739728022505</v>
       </c>
       <c r="L14">
-        <v>1.038557427974353</v>
+        <v>1.037719420424398</v>
       </c>
       <c r="M14">
-        <v>1.048772776257224</v>
+        <v>1.047838371270903</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.048425147369606</v>
+        <v>1.047686572470651</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042326245550134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04137427045472</v>
+      </c>
+      <c r="S14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.023752133143935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007786545353696</v>
+        <v>1.006815822365376</v>
       </c>
       <c r="D15">
-        <v>1.030004934272375</v>
+        <v>1.028593291677753</v>
       </c>
       <c r="E15">
-        <v>1.024398425103423</v>
+        <v>1.023532265079347</v>
       </c>
       <c r="F15">
-        <v>1.034799648027478</v>
+        <v>1.033835407737741</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04922142287884</v>
+        <v>1.04857714567695</v>
       </c>
       <c r="J15">
-        <v>1.036689793005809</v>
+        <v>1.035758387960739</v>
       </c>
       <c r="K15">
-        <v>1.04431343641271</v>
+        <v>1.04292635219189</v>
       </c>
       <c r="L15">
-        <v>1.038804981576633</v>
+        <v>1.037954094370056</v>
       </c>
       <c r="M15">
-        <v>1.049025383065543</v>
+        <v>1.048077707911155</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048662115954303</v>
+        <v>1.047913071569141</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04247735058941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041512603113848</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023794551068931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010018949059453</v>
+        <v>1.0089897008472</v>
       </c>
       <c r="D16">
-        <v>1.031457371924699</v>
+        <v>1.029961577088067</v>
       </c>
       <c r="E16">
-        <v>1.02606474937906</v>
+        <v>1.025144758454596</v>
       </c>
       <c r="F16">
-        <v>1.036370295728106</v>
+        <v>1.035348275390293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04972664516195</v>
+        <v>1.049041454574646</v>
       </c>
       <c r="J16">
-        <v>1.037765090380453</v>
+        <v>1.036775473239752</v>
       </c>
       <c r="K16">
-        <v>1.045245888817802</v>
+        <v>1.043774994410318</v>
       </c>
       <c r="L16">
-        <v>1.039943476721518</v>
+        <v>1.039038998115611</v>
       </c>
       <c r="M16">
-        <v>1.050077677770277</v>
+        <v>1.049072454074581</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049455377576091</v>
+        <v>1.04866082429008</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04313975369276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042116049593163</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023964934841923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011309092550142</v>
+        <v>1.01025205376787</v>
       </c>
       <c r="D17">
-        <v>1.032266501701888</v>
+        <v>1.030728373895001</v>
       </c>
       <c r="E17">
-        <v>1.026989077241848</v>
+        <v>1.0260436914635</v>
       </c>
       <c r="F17">
-        <v>1.037185506525636</v>
+        <v>1.036135036187312</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04998218116987</v>
+        <v>1.049277348827999</v>
       </c>
       <c r="J17">
-        <v>1.038339510247247</v>
+        <v>1.037321882593286</v>
       </c>
       <c r="K17">
-        <v>1.045731484913887</v>
+        <v>1.044218252727413</v>
       </c>
       <c r="L17">
-        <v>1.04053987887332</v>
+        <v>1.039609986298393</v>
       </c>
       <c r="M17">
-        <v>1.050571507740201</v>
+        <v>1.049537823533958</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.049717542229783</v>
+        <v>1.048900412569325</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04348564664185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042432256339631</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02404323676299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011897584458925</v>
+        <v>1.01083749831882</v>
       </c>
       <c r="D18">
-        <v>1.032577250862738</v>
+        <v>1.031030021855533</v>
       </c>
       <c r="E18">
-        <v>1.027339037126265</v>
+        <v>1.026391240913602</v>
       </c>
       <c r="F18">
-        <v>1.037389609325778</v>
+        <v>1.036334106340083</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050036603227425</v>
+        <v>1.049329314280388</v>
       </c>
       <c r="J18">
-        <v>1.038518529883355</v>
+        <v>1.037497238897494</v>
       </c>
       <c r="K18">
-        <v>1.045856392642473</v>
+        <v>1.044333802393671</v>
       </c>
       <c r="L18">
-        <v>1.040701979056604</v>
+        <v>1.039769462828477</v>
       </c>
       <c r="M18">
-        <v>1.050592718080414</v>
+        <v>1.049553814180003</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049498424346242</v>
+        <v>1.048676999659278</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043562434579532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042501291597426</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024043712133612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011866404027874</v>
+        <v>1.010824738960076</v>
       </c>
       <c r="D19">
-        <v>1.032456652578067</v>
+        <v>1.030929578034081</v>
       </c>
       <c r="E19">
-        <v>1.027181713837936</v>
+        <v>1.026251444321806</v>
       </c>
       <c r="F19">
-        <v>1.037051991371752</v>
+        <v>1.036011920844987</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049922272460852</v>
+        <v>1.049227470168193</v>
       </c>
       <c r="J19">
-        <v>1.038356436040102</v>
+        <v>1.037352672062293</v>
       </c>
       <c r="K19">
-        <v>1.045676041513297</v>
+        <v>1.044173162044599</v>
       </c>
       <c r="L19">
-        <v>1.040485070305093</v>
+        <v>1.039569723852814</v>
       </c>
       <c r="M19">
-        <v>1.050199121129423</v>
+        <v>1.049175333349432</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04886451274491</v>
+        <v>1.048054779624282</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043441257085462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042394676085517</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023981186980191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010086518483398</v>
+        <v>1.009123014993895</v>
       </c>
       <c r="D20">
-        <v>1.031112761181409</v>
+        <v>1.029686684212509</v>
       </c>
       <c r="E20">
-        <v>1.025603709390367</v>
+        <v>1.024746522651345</v>
       </c>
       <c r="F20">
-        <v>1.035222567575298</v>
+        <v>1.034254835118518</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049330557671209</v>
+        <v>1.048689754329321</v>
       </c>
       <c r="J20">
-        <v>1.037234083455994</v>
+        <v>1.036306733623709</v>
       </c>
       <c r="K20">
-        <v>1.044629735951518</v>
+        <v>1.04322686982885</v>
       </c>
       <c r="L20">
-        <v>1.039210808754481</v>
+        <v>1.038367757145198</v>
       </c>
       <c r="M20">
-        <v>1.048673110002467</v>
+        <v>1.047720959325674</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047134325142013</v>
+        <v>1.046380804826092</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042705376132882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041729898954797</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023738643095987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005889562381144</v>
+        <v>1.005047456689322</v>
       </c>
       <c r="D21">
-        <v>1.028336388373722</v>
+        <v>1.027079459421134</v>
       </c>
       <c r="E21">
-        <v>1.022410223556395</v>
+        <v>1.021665246342048</v>
       </c>
       <c r="F21">
-        <v>1.032144794060232</v>
+        <v>1.031294962263938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048330218364486</v>
+        <v>1.047773710170624</v>
       </c>
       <c r="J21">
-        <v>1.035143090665899</v>
+        <v>1.034335651205304</v>
       </c>
       <c r="K21">
-        <v>1.042800096100108</v>
+        <v>1.041565344278169</v>
       </c>
       <c r="L21">
-        <v>1.036979112073703</v>
+        <v>1.036247469264597</v>
       </c>
       <c r="M21">
-        <v>1.046541733694256</v>
+        <v>1.045706745589359</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045407034404418</v>
+        <v>1.0447462014648</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041414970534437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040558685836319</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023390067983935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003221242781705</v>
+        <v>1.002455866583626</v>
       </c>
       <c r="D22">
-        <v>1.026580015724772</v>
+        <v>1.025429534686138</v>
       </c>
       <c r="E22">
-        <v>1.020397409657609</v>
+        <v>1.019723148610325</v>
       </c>
       <c r="F22">
-        <v>1.030222000542073</v>
+        <v>1.029446520558124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047691938848503</v>
+        <v>1.047188339051213</v>
       </c>
       <c r="J22">
-        <v>1.033820700336838</v>
+        <v>1.033088646222143</v>
       </c>
       <c r="K22">
-        <v>1.041642688267938</v>
+        <v>1.04051351713136</v>
       </c>
       <c r="L22">
-        <v>1.035575337744374</v>
+        <v>1.034913756615706</v>
       </c>
       <c r="M22">
-        <v>1.045217622719944</v>
+        <v>1.044456367842874</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044359095668895</v>
+        <v>1.04375661642897</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040583257930827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039800319502515</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02316801891533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004630874537749</v>
+        <v>1.003824914681609</v>
       </c>
       <c r="D23">
-        <v>1.02750189058151</v>
+        <v>1.026295033607118</v>
       </c>
       <c r="E23">
-        <v>1.021458394234529</v>
+        <v>1.020746758328534</v>
       </c>
       <c r="F23">
-        <v>1.03123521074249</v>
+        <v>1.030420396926246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048025689016922</v>
+        <v>1.047494146322962</v>
       </c>
       <c r="J23">
-        <v>1.034515034323964</v>
+        <v>1.033743144988436</v>
       </c>
       <c r="K23">
-        <v>1.042246864237171</v>
+        <v>1.041061797612864</v>
       </c>
       <c r="L23">
-        <v>1.036313158750853</v>
+        <v>1.035614562406985</v>
       </c>
       <c r="M23">
-        <v>1.045913196895455</v>
+        <v>1.045112949620212</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044909592858049</v>
+        <v>1.044276254364316</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041000877996419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040177473929458</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023282704713984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010099124102774</v>
+        <v>1.009137513137551</v>
       </c>
       <c r="D24">
-        <v>1.031098733920306</v>
+        <v>1.029674388869483</v>
       </c>
       <c r="E24">
-        <v>1.025592509325655</v>
+        <v>1.024737149312301</v>
       </c>
       <c r="F24">
-        <v>1.035185914859586</v>
+        <v>1.034219657371279</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049312787727989</v>
+        <v>1.048673255603034</v>
       </c>
       <c r="J24">
-        <v>1.037213883337069</v>
+        <v>1.036288303110113</v>
       </c>
       <c r="K24">
-        <v>1.044600877587988</v>
+        <v>1.043199686325105</v>
       </c>
       <c r="L24">
-        <v>1.039184618976699</v>
+        <v>1.038343346279378</v>
       </c>
       <c r="M24">
-        <v>1.048622072132153</v>
+        <v>1.04767135419897</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047053469842751</v>
+        <v>1.046301046718758</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042657816069047</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041680846687047</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023727152137592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016254813169309</v>
+        <v>1.015121436332102</v>
       </c>
       <c r="D25">
-        <v>1.035170108940253</v>
+        <v>1.033502964343393</v>
       </c>
       <c r="E25">
-        <v>1.030276826144344</v>
+        <v>1.029262257673622</v>
       </c>
       <c r="F25">
-        <v>1.039667181604548</v>
+        <v>1.038532621337368</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050731109669819</v>
+        <v>1.049970921184399</v>
       </c>
       <c r="J25">
-        <v>1.04024725337897</v>
+        <v>1.03915040442487</v>
       </c>
       <c r="K25">
-        <v>1.047245928840261</v>
+        <v>1.045602535492206</v>
       </c>
       <c r="L25">
-        <v>1.042422635479989</v>
+        <v>1.041422684078243</v>
       </c>
       <c r="M25">
-        <v>1.051679413144392</v>
+        <v>1.050560829856636</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049473124571423</v>
+        <v>1.048587851214244</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044525134831608</v>
+        <v>1.043376614065967</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024216479243794</v>
       </c>
     </row>
   </sheetData>
